--- a/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ALOCACAO - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ALOCACAO - ATUALIZADO.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="405" windowWidth="14700" windowHeight="5295" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="405" windowWidth="14700" windowHeight="5295" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho Mapa P1" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1065,8 +1065,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1890,6 +1890,63 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,104 +1956,92 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2006,51 +2051,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2074,7 +2074,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2104,7 +2104,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2171,7 +2171,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2219,7 +2219,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2242,14 +2242,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2292,7 +2292,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2315,14 +2315,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2336,6 +2336,52 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2425,6 +2471,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2459,6 +2506,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2634,7 +2682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2644,7 +2692,7 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2653,7 +2701,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2661,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -2669,22 +2717,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2695,142 +2743,135 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
-      <c r="B9" s="105" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111" t="s">
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="29">
         <v>41238</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="117"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="99"/>
       <c r="H13" s="100"/>
       <c r="I13" s="100"/>
       <c r="J13" s="101"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="99"/>
       <c r="H14" s="100"/>
       <c r="I14" s="100"/>
       <c r="J14" s="101"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
       <c r="G15" s="99"/>
       <c r="H15" s="100"/>
       <c r="I15" s="100"/>
       <c r="J15" s="101"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="99"/>
       <c r="H16" s="100"/>
       <c r="I16" s="100"/>
       <c r="J16" s="101"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2841,6 +2882,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2850,7 +2898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2860,7 +2908,7 @@
       <selection activeCell="D8" sqref="D8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2869,7 +2917,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2878,7 +2926,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -2887,7 +2935,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -2898,60 +2946,60 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
-      <c r="B6" s="119" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-    </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1">
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2962,20 +3010,20 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="120" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-    </row>
-    <row r="12" spans="2:10" ht="23.25" customHeight="1">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+    </row>
+    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
         <v>65</v>
       </c>
@@ -2985,40 +3033,40 @@
       <c r="D12" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="128" t="s">
+      <c r="E12" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="130"/>
-      <c r="G12" s="128" t="s">
+      <c r="F12" s="129"/>
+      <c r="G12" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-    </row>
-    <row r="15" spans="2:10" ht="13.5" thickBot="1">
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+    </row>
+    <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3029,14 +3077,14 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B16" s="120" t="s">
+    <row r="16" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
         <v>66</v>
       </c>
@@ -3047,17 +3095,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3068,20 +3116,20 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B21" s="119" t="s">
+    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-    </row>
-    <row r="22" spans="2:10" ht="23.25">
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+    </row>
+    <row r="22" spans="2:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
         <v>71</v>
       </c>
@@ -3091,52 +3139,59 @@
       <c r="D22" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="123" t="s">
+      <c r="E22" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123" t="s">
+      <c r="F22" s="122"/>
+      <c r="G22" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3151,13 +3206,6 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3168,37 +3216,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId3"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D54" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="N51" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="O58" sqref="O58:O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3231,52 +3306,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D1" s="81"/>
       <c r="Q1" s="56"/>
       <c r="R1" s="56"/>
       <c r="S1" s="56"/>
       <c r="T1" s="56"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" customHeight="1">
-      <c r="B2" s="143" t="s">
+    <row r="2" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="145" t="s">
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="141" t="s">
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="23.25">
+    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3360,7 +3435,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="4" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="70" t="s">
         <v>97</v>
@@ -3427,7 +3502,7 @@
       <c r="AB4" s="70"/>
       <c r="AC4" s="70"/>
     </row>
-    <row r="5" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="5" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="70" t="s">
         <v>97</v>
@@ -3494,7 +3569,7 @@
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
     </row>
-    <row r="6" spans="1:29" s="10" customFormat="1" ht="12">
+    <row r="6" spans="1:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="70" t="s">
         <v>97</v>
       </c>
@@ -3560,7 +3635,7 @@
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
     </row>
-    <row r="7" spans="1:29" s="15" customFormat="1" ht="11.25" customHeight="1">
+    <row r="7" spans="1:29" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="70" t="s">
         <v>97</v>
       </c>
@@ -3626,7 +3701,7 @@
       <c r="AB7" s="70"/>
       <c r="AC7" s="70"/>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="8" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="70" t="s">
         <v>97</v>
@@ -3693,7 +3768,7 @@
       <c r="AB8" s="70"/>
       <c r="AC8" s="70"/>
     </row>
-    <row r="9" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="9" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="70" t="s">
         <v>97</v>
@@ -3764,7 +3839,7 @@
       <c r="AB9" s="72"/>
       <c r="AC9" s="72"/>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="10" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="70" t="s">
         <v>97</v>
@@ -3831,7 +3906,7 @@
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="70" t="s">
         <v>97</v>
@@ -3898,7 +3973,7 @@
       <c r="AB11" s="72"/>
       <c r="AC11" s="72"/>
     </row>
-    <row r="12" spans="1:29" s="10" customFormat="1" ht="12">
+    <row r="12" spans="1:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="70" t="s">
         <v>97</v>
       </c>
@@ -3964,7 +4039,7 @@
       <c r="AB12" s="72"/>
       <c r="AC12" s="72"/>
     </row>
-    <row r="13" spans="1:29" s="15" customFormat="1" ht="12">
+    <row r="13" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="70" t="s">
         <v>97</v>
       </c>
@@ -4030,7 +4105,7 @@
       <c r="AB13" s="72"/>
       <c r="AC13" s="72"/>
     </row>
-    <row r="14" spans="1:29" s="15" customFormat="1" ht="12">
+    <row r="14" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="70" t="s">
         <v>97</v>
       </c>
@@ -4096,7 +4171,7 @@
       <c r="AB14" s="72"/>
       <c r="AC14" s="72"/>
     </row>
-    <row r="15" spans="1:29" s="15" customFormat="1" ht="12">
+    <row r="15" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="70" t="s">
         <v>97</v>
       </c>
@@ -4166,7 +4241,7 @@
       <c r="AB15" s="72"/>
       <c r="AC15" s="72"/>
     </row>
-    <row r="16" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65"/>
       <c r="B16" s="70" t="s">
         <v>97</v>
@@ -4233,7 +4308,7 @@
       <c r="AB16" s="70"/>
       <c r="AC16" s="70"/>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65"/>
       <c r="B17" s="70" t="s">
         <v>97</v>
@@ -4300,7 +4375,7 @@
       <c r="AB17" s="70"/>
       <c r="AC17" s="70"/>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:29" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65"/>
       <c r="B18" s="70" t="s">
         <v>97</v>
@@ -4363,7 +4438,7 @@
       <c r="AB18" s="70"/>
       <c r="AC18" s="70"/>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" ht="11.25" customHeight="1">
+    <row r="19" spans="1:29" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65"/>
       <c r="B19" s="70" t="s">
         <v>97</v>
@@ -4430,7 +4505,7 @@
       <c r="AB19" s="70"/>
       <c r="AC19" s="70"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="60"/>
       <c r="B20" s="70" t="s">
         <v>97</v>
@@ -4501,7 +4576,7 @@
       <c r="AB20" s="70"/>
       <c r="AC20" s="70"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="60"/>
       <c r="B21" s="70" t="s">
         <v>97</v>
@@ -4564,7 +4639,7 @@
       <c r="AB21" s="70"/>
       <c r="AC21" s="70"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="60"/>
       <c r="B22" s="70" t="s">
         <v>97</v>
@@ -4635,7 +4710,7 @@
       <c r="AB22" s="70"/>
       <c r="AC22" s="70"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="60"/>
       <c r="B23" s="70" t="s">
         <v>97</v>
@@ -4702,7 +4777,7 @@
       <c r="AB23" s="70"/>
       <c r="AC23" s="70"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="60"/>
       <c r="B24" s="70" t="s">
         <v>97</v>
@@ -4773,7 +4848,7 @@
       <c r="AB24" s="70"/>
       <c r="AC24" s="70"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="60"/>
       <c r="B25" s="70" t="s">
         <v>97</v>
@@ -4840,7 +4915,7 @@
       <c r="AB25" s="70"/>
       <c r="AC25" s="70"/>
     </row>
-    <row r="26" spans="1:29" ht="12" customHeight="1">
+    <row r="26" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="60"/>
       <c r="B26" s="70" t="s">
         <v>97</v>
@@ -4907,7 +4982,7 @@
       <c r="AB26" s="70"/>
       <c r="AC26" s="70"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="60"/>
       <c r="B27" s="70" t="s">
         <v>97</v>
@@ -4974,7 +5049,7 @@
       <c r="AB27" s="70"/>
       <c r="AC27" s="70"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="60"/>
       <c r="B28" s="70" t="s">
         <v>97</v>
@@ -5041,7 +5116,7 @@
       <c r="AB28" s="70"/>
       <c r="AC28" s="70"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="60"/>
       <c r="B29" s="70" t="s">
         <v>97</v>
@@ -5108,7 +5183,7 @@
       <c r="AB29" s="70"/>
       <c r="AC29" s="70"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="60"/>
       <c r="B30" s="70" t="s">
         <v>97</v>
@@ -5175,7 +5250,7 @@
       <c r="AB30" s="70"/>
       <c r="AC30" s="70"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="60"/>
       <c r="B31" s="70" t="s">
         <v>97</v>
@@ -5246,7 +5321,7 @@
       <c r="AB31" s="70"/>
       <c r="AC31" s="70"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="60"/>
       <c r="B32" s="70" t="s">
         <v>97</v>
@@ -5313,7 +5388,7 @@
       <c r="AB32" s="70"/>
       <c r="AC32" s="70"/>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
       <c r="B33" s="70" t="s">
         <v>97</v>
@@ -5376,7 +5451,7 @@
       <c r="AB33" s="70"/>
       <c r="AC33" s="70"/>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="60"/>
       <c r="B34" s="70" t="s">
         <v>97</v>
@@ -5439,7 +5514,7 @@
       <c r="AB34" s="70"/>
       <c r="AC34" s="70"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="60"/>
       <c r="B35" s="70" t="s">
         <v>97</v>
@@ -5502,7 +5577,7 @@
       <c r="AB35" s="70"/>
       <c r="AC35" s="70"/>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="60"/>
       <c r="B36" s="70" t="s">
         <v>97</v>
@@ -5573,7 +5648,7 @@
       <c r="AB36" s="70"/>
       <c r="AC36" s="70"/>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -5630,7 +5705,7 @@
       <c r="AB37" s="70"/>
       <c r="AC37" s="70"/>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
       <c r="B38" s="70" t="s">
         <v>97</v>
@@ -5701,7 +5776,7 @@
       <c r="AB38" s="70"/>
       <c r="AC38" s="70"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
       <c r="B39" s="70" t="s">
         <v>97</v>
@@ -5768,7 +5843,7 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="70"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="70" t="s">
         <v>97</v>
@@ -5835,7 +5910,7 @@
       <c r="AB40" s="70"/>
       <c r="AC40" s="70"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
       <c r="B41" s="70" t="s">
         <v>97</v>
@@ -5898,7 +5973,7 @@
       <c r="AB41" s="70"/>
       <c r="AC41" s="70"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
       <c r="B42" s="70" t="s">
         <v>97</v>
@@ -5961,7 +6036,7 @@
       <c r="AB42" s="70"/>
       <c r="AC42" s="70"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="70" t="s">
         <v>97</v>
@@ -6028,7 +6103,7 @@
       <c r="AB43" s="70"/>
       <c r="AC43" s="70"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="60"/>
       <c r="B44" s="70" t="s">
         <v>97</v>
@@ -6099,7 +6174,7 @@
       <c r="AB44" s="70"/>
       <c r="AC44" s="70"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="60"/>
       <c r="B45" s="70" t="s">
         <v>97</v>
@@ -6162,7 +6237,7 @@
       <c r="AB45" s="70"/>
       <c r="AC45" s="70"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
       <c r="B46" s="70" t="s">
         <v>97</v>
@@ -6225,7 +6300,7 @@
       <c r="AB46" s="70"/>
       <c r="AC46" s="70"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="60"/>
       <c r="B47" s="70" t="s">
         <v>97</v>
@@ -6292,7 +6367,7 @@
       <c r="AB47" s="70"/>
       <c r="AC47" s="70"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="60"/>
       <c r="B48" s="70" t="s">
         <v>97</v>
@@ -6359,7 +6434,7 @@
       <c r="AB48" s="70"/>
       <c r="AC48" s="70"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="60"/>
       <c r="B49" s="70" t="s">
         <v>97</v>
@@ -6426,7 +6501,7 @@
       <c r="AB49" s="70"/>
       <c r="AC49" s="70"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="60"/>
       <c r="B50" s="70" t="s">
         <v>97</v>
@@ -6497,7 +6572,7 @@
       <c r="AB50" s="70"/>
       <c r="AC50" s="70"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="60"/>
       <c r="B51" s="70" t="s">
         <v>97</v>
@@ -6568,7 +6643,7 @@
       <c r="AB51" s="70"/>
       <c r="AC51" s="70"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="70" t="s">
         <v>97</v>
@@ -6631,7 +6706,7 @@
       <c r="AB52" s="70"/>
       <c r="AC52" s="70"/>
     </row>
-    <row r="53" spans="1:29" ht="48">
+    <row r="53" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="60"/>
       <c r="B53" s="85"/>
       <c r="C53" s="85"/>
@@ -6690,7 +6765,7 @@
       <c r="AB53" s="70"/>
       <c r="AC53" s="70"/>
     </row>
-    <row r="54" spans="1:29" ht="48">
+    <row r="54" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="60"/>
       <c r="B54" s="85"/>
       <c r="C54" s="85"/>
@@ -6749,7 +6824,7 @@
       <c r="AB54" s="70"/>
       <c r="AC54" s="70"/>
     </row>
-    <row r="55" spans="1:29" ht="48">
+    <row r="55" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="B55" s="85"/>
       <c r="C55" s="85"/>
       <c r="D55" s="85"/>
@@ -6807,7 +6882,7 @@
       <c r="AB55" s="70"/>
       <c r="AC55" s="70"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B56" s="70" t="s">
         <v>97</v>
       </c>
@@ -6879,7 +6954,7 @@
       <c r="AB56" s="70"/>
       <c r="AC56" s="70"/>
     </row>
-    <row r="57" spans="1:29" ht="48">
+    <row r="57" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="B57" s="85"/>
       <c r="C57" s="85"/>
       <c r="D57" s="85"/>
@@ -6941,7 +7016,7 @@
       <c r="AB57" s="70"/>
       <c r="AC57" s="70"/>
     </row>
-    <row r="58" spans="1:29" ht="42.75" customHeight="1">
+    <row r="58" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="70" t="s">
         <v>97</v>
       </c>
@@ -6972,27 +7047,27 @@
       </c>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
-      <c r="N58" s="132" t="s">
+      <c r="N58" s="147" t="s">
         <v>147</v>
       </c>
       <c r="O58" s="138"/>
       <c r="P58" s="138"/>
-      <c r="Q58" s="147" t="s">
-        <v>99</v>
-      </c>
-      <c r="R58" s="135" t="s">
-        <v>98</v>
-      </c>
-      <c r="S58" s="147" t="s">
-        <v>99</v>
-      </c>
-      <c r="T58" s="135" t="s">
+      <c r="Q58" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="R58" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="S58" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="T58" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="U58" s="135" t="s">
+      <c r="U58" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="V58" s="132"/>
+      <c r="V58" s="147"/>
       <c r="W58" s="70" t="s">
         <v>155</v>
       </c>
@@ -7003,11 +7078,11 @@
         <v>5</v>
       </c>
       <c r="Z58" s="70"/>
-      <c r="AA58" s="132"/>
-      <c r="AB58" s="132"/>
-      <c r="AC58" s="132"/>
-    </row>
-    <row r="59" spans="1:29" ht="37.5" customHeight="1">
+      <c r="AA58" s="147"/>
+      <c r="AB58" s="147"/>
+      <c r="AC58" s="147"/>
+    </row>
+    <row r="59" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
         <v>97</v>
       </c>
@@ -7038,15 +7113,15 @@
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
-      <c r="N59" s="133"/>
+      <c r="N59" s="148"/>
       <c r="O59" s="139"/>
       <c r="P59" s="139"/>
-      <c r="Q59" s="148"/>
-      <c r="R59" s="136"/>
-      <c r="S59" s="148"/>
-      <c r="T59" s="136"/>
-      <c r="U59" s="136"/>
-      <c r="V59" s="133"/>
+      <c r="Q59" s="142"/>
+      <c r="R59" s="145"/>
+      <c r="S59" s="142"/>
+      <c r="T59" s="145"/>
+      <c r="U59" s="145"/>
+      <c r="V59" s="148"/>
       <c r="W59" s="70" t="s">
         <v>155</v>
       </c>
@@ -7057,11 +7132,11 @@
         <v>5</v>
       </c>
       <c r="Z59" s="70"/>
-      <c r="AA59" s="133"/>
-      <c r="AB59" s="133"/>
-      <c r="AC59" s="133"/>
-    </row>
-    <row r="60" spans="1:29" ht="37.5" customHeight="1">
+      <c r="AA59" s="148"/>
+      <c r="AB59" s="148"/>
+      <c r="AC59" s="148"/>
+    </row>
+    <row r="60" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="70" t="s">
         <v>97</v>
       </c>
@@ -7092,15 +7167,15 @@
       </c>
       <c r="L60" s="70"/>
       <c r="M60" s="70"/>
-      <c r="N60" s="134"/>
+      <c r="N60" s="149"/>
       <c r="O60" s="140"/>
       <c r="P60" s="140"/>
-      <c r="Q60" s="149"/>
-      <c r="R60" s="137"/>
-      <c r="S60" s="149"/>
-      <c r="T60" s="137"/>
-      <c r="U60" s="137"/>
-      <c r="V60" s="134"/>
+      <c r="Q60" s="143"/>
+      <c r="R60" s="146"/>
+      <c r="S60" s="143"/>
+      <c r="T60" s="146"/>
+      <c r="U60" s="146"/>
+      <c r="V60" s="149"/>
       <c r="W60" s="70" t="s">
         <v>155</v>
       </c>
@@ -7111,11 +7186,11 @@
         <v>1</v>
       </c>
       <c r="Z60" s="70"/>
-      <c r="AA60" s="134"/>
-      <c r="AB60" s="134"/>
-      <c r="AC60" s="134"/>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AA60" s="149"/>
+      <c r="AB60" s="149"/>
+      <c r="AC60" s="149"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B61" s="85"/>
       <c r="C61" s="85"/>
       <c r="D61" s="85"/>
@@ -7173,7 +7248,7 @@
       <c r="AB61" s="92"/>
       <c r="AC61" s="70"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
       <c r="D62" s="85"/>
@@ -7231,7 +7306,7 @@
       <c r="AB62" s="92"/>
       <c r="AC62" s="70"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B63" s="85"/>
       <c r="C63" s="85"/>
       <c r="D63" s="85"/>
@@ -7285,7 +7360,7 @@
       <c r="AB63" s="92"/>
       <c r="AC63" s="70"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
       <c r="D64" s="61"/>
@@ -7315,7 +7390,7 @@
       <c r="AB64" s="60"/>
       <c r="AC64" s="65"/>
     </row>
-    <row r="65" spans="2:29">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
       <c r="D65" s="61"/>
@@ -7345,7 +7420,7 @@
       <c r="AB65" s="60"/>
       <c r="AC65" s="65"/>
     </row>
-    <row r="66" spans="2:29">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
       <c r="D66" s="61"/>
@@ -7375,7 +7450,7 @@
       <c r="AB66" s="60"/>
       <c r="AC66" s="65"/>
     </row>
-    <row r="67" spans="2:29">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="60"/>
       <c r="C67" s="60"/>
       <c r="D67" s="61"/>
@@ -7405,7 +7480,7 @@
       <c r="AB67" s="60"/>
       <c r="AC67" s="65"/>
     </row>
-    <row r="68" spans="2:29">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="60"/>
       <c r="C68" s="60"/>
       <c r="D68" s="61"/>
@@ -7435,7 +7510,7 @@
       <c r="AB68" s="60"/>
       <c r="AC68" s="65"/>
     </row>
-    <row r="69" spans="2:29">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="60"/>
       <c r="C69" s="60"/>
       <c r="D69" s="61"/>
@@ -7457,7 +7532,7 @@
       <c r="T69" s="64"/>
       <c r="U69" s="60"/>
     </row>
-    <row r="70" spans="2:29">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
       <c r="D70" s="61"/>
@@ -7479,7 +7554,7 @@
       <c r="T70" s="64"/>
       <c r="U70" s="60"/>
     </row>
-    <row r="71" spans="2:29">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
       <c r="D71" s="61"/>
@@ -7501,7 +7576,7 @@
       <c r="T71" s="64"/>
       <c r="U71" s="60"/>
     </row>
-    <row r="72" spans="2:29">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B72" s="60"/>
       <c r="C72" s="60"/>
       <c r="D72" s="61"/>
@@ -7523,7 +7598,7 @@
       <c r="T72" s="64"/>
       <c r="U72" s="60"/>
     </row>
-    <row r="73" spans="2:29">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B73" s="60"/>
       <c r="C73" s="60"/>
       <c r="D73" s="61"/>
@@ -7545,7 +7620,7 @@
       <c r="T73" s="64"/>
       <c r="U73" s="60"/>
     </row>
-    <row r="74" spans="2:29">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
       <c r="D74" s="61"/>
@@ -7567,7 +7642,7 @@
       <c r="T74" s="64"/>
       <c r="U74" s="60"/>
     </row>
-    <row r="75" spans="2:29">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
       <c r="D75" s="61"/>
@@ -7589,7 +7664,7 @@
       <c r="T75" s="64"/>
       <c r="U75" s="60"/>
     </row>
-    <row r="76" spans="2:29">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
       <c r="D76" s="61"/>
@@ -7611,7 +7686,7 @@
       <c r="T76" s="64"/>
       <c r="U76" s="60"/>
     </row>
-    <row r="77" spans="2:29">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
       <c r="D77" s="61"/>
@@ -7633,7 +7708,7 @@
       <c r="T77" s="64"/>
       <c r="U77" s="60"/>
     </row>
-    <row r="78" spans="2:29">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
       <c r="D78" s="61"/>
@@ -7655,7 +7730,7 @@
       <c r="T78" s="64"/>
       <c r="U78" s="60"/>
     </row>
-    <row r="79" spans="2:29">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
       <c r="D79" s="61"/>
@@ -7677,7 +7752,7 @@
       <c r="T79" s="64"/>
       <c r="U79" s="60"/>
     </row>
-    <row r="80" spans="2:29">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="60"/>
       <c r="C80" s="60"/>
       <c r="D80" s="61"/>
@@ -7699,7 +7774,7 @@
       <c r="T80" s="64"/>
       <c r="U80" s="60"/>
     </row>
-    <row r="81" spans="2:21">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B81" s="60"/>
       <c r="C81" s="60"/>
       <c r="D81" s="61"/>
@@ -7721,7 +7796,7 @@
       <c r="T81" s="64"/>
       <c r="U81" s="60"/>
     </row>
-    <row r="82" spans="2:21">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B82" s="60"/>
       <c r="C82" s="60"/>
       <c r="D82" s="61"/>
@@ -7743,7 +7818,7 @@
       <c r="T82" s="64"/>
       <c r="U82" s="60"/>
     </row>
-    <row r="83" spans="2:21">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B83" s="60"/>
       <c r="C83" s="60"/>
       <c r="D83" s="61"/>
@@ -7765,7 +7840,7 @@
       <c r="T83" s="64"/>
       <c r="U83" s="60"/>
     </row>
-    <row r="84" spans="2:21">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B84" s="60"/>
       <c r="C84" s="60"/>
       <c r="D84" s="61"/>
@@ -7787,7 +7862,7 @@
       <c r="T84" s="64"/>
       <c r="U84" s="60"/>
     </row>
-    <row r="85" spans="2:21">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
       <c r="D85" s="61"/>
@@ -7809,7 +7884,7 @@
       <c r="T85" s="64"/>
       <c r="U85" s="60"/>
     </row>
-    <row r="86" spans="2:21">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
       <c r="D86" s="61"/>
@@ -7831,7 +7906,7 @@
       <c r="T86" s="64"/>
       <c r="U86" s="60"/>
     </row>
-    <row r="87" spans="2:21">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
       <c r="D87" s="61"/>
@@ -7853,7 +7928,7 @@
       <c r="T87" s="64"/>
       <c r="U87" s="60"/>
     </row>
-    <row r="88" spans="2:21">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B88" s="60"/>
       <c r="C88" s="60"/>
       <c r="D88" s="61"/>
@@ -7875,7 +7950,7 @@
       <c r="T88" s="64"/>
       <c r="U88" s="60"/>
     </row>
-    <row r="89" spans="2:21">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
       <c r="D89" s="61"/>
@@ -7897,7 +7972,7 @@
       <c r="T89" s="64"/>
       <c r="U89" s="60"/>
     </row>
-    <row r="90" spans="2:21">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B90" s="60"/>
       <c r="C90" s="60"/>
       <c r="D90" s="61"/>
@@ -7919,7 +7994,7 @@
       <c r="T90" s="64"/>
       <c r="U90" s="60"/>
     </row>
-    <row r="91" spans="2:21">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B91" s="60"/>
       <c r="C91" s="60"/>
       <c r="D91" s="61"/>
@@ -7941,7 +8016,7 @@
       <c r="T91" s="64"/>
       <c r="U91" s="60"/>
     </row>
-    <row r="92" spans="2:21">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B92" s="60"/>
       <c r="C92" s="60"/>
       <c r="D92" s="61"/>
@@ -7963,7 +8038,7 @@
       <c r="T92" s="64"/>
       <c r="U92" s="60"/>
     </row>
-    <row r="93" spans="2:21">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B93" s="60"/>
       <c r="C93" s="60"/>
       <c r="D93" s="61"/>
@@ -7985,7 +8060,7 @@
       <c r="T93" s="64"/>
       <c r="U93" s="60"/>
     </row>
-    <row r="94" spans="2:21">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B94" s="60"/>
       <c r="C94" s="60"/>
       <c r="D94" s="61"/>
@@ -8007,7 +8082,7 @@
       <c r="T94" s="64"/>
       <c r="U94" s="60"/>
     </row>
-    <row r="95" spans="2:21">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B95" s="60"/>
       <c r="C95" s="60"/>
       <c r="D95" s="61"/>
@@ -8029,7 +8104,7 @@
       <c r="T95" s="64"/>
       <c r="U95" s="60"/>
     </row>
-    <row r="96" spans="2:21">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
       <c r="D96" s="61"/>
@@ -8051,7 +8126,7 @@
       <c r="T96" s="64"/>
       <c r="U96" s="60"/>
     </row>
-    <row r="97" spans="2:21">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
       <c r="D97" s="61"/>
@@ -8073,7 +8148,7 @@
       <c r="T97" s="64"/>
       <c r="U97" s="60"/>
     </row>
-    <row r="98" spans="2:21">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B98" s="60"/>
       <c r="C98" s="60"/>
       <c r="D98" s="61"/>
@@ -8095,7 +8170,7 @@
       <c r="T98" s="64"/>
       <c r="U98" s="60"/>
     </row>
-    <row r="99" spans="2:21">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="60"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
@@ -8117,7 +8192,7 @@
       <c r="T99" s="64"/>
       <c r="U99" s="60"/>
     </row>
-    <row r="100" spans="2:21">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B100" s="60"/>
       <c r="C100" s="60"/>
       <c r="D100" s="61"/>
@@ -8139,7 +8214,7 @@
       <c r="T100" s="64"/>
       <c r="U100" s="60"/>
     </row>
-    <row r="101" spans="2:21">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B101" s="60"/>
       <c r="C101" s="60"/>
       <c r="D101" s="61"/>
@@ -8161,7 +8236,7 @@
       <c r="T101" s="64"/>
       <c r="U101" s="60"/>
     </row>
-    <row r="102" spans="2:21">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B102" s="60"/>
       <c r="C102" s="60"/>
       <c r="D102" s="61"/>
@@ -8183,7 +8258,7 @@
       <c r="T102" s="64"/>
       <c r="U102" s="60"/>
     </row>
-    <row r="103" spans="2:21">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B103" s="60"/>
       <c r="C103" s="60"/>
       <c r="D103" s="61"/>
@@ -8205,7 +8280,7 @@
       <c r="T103" s="64"/>
       <c r="U103" s="60"/>
     </row>
-    <row r="104" spans="2:21">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B104" s="60"/>
       <c r="C104" s="60"/>
       <c r="D104" s="61"/>
@@ -8229,6 +8304,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="U58:U60"/>
+    <mergeCell ref="V58:V60"/>
+    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="O58:O60"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -8239,11 +8319,6 @@
     <mergeCell ref="T58:T60"/>
     <mergeCell ref="AA58:AA60"/>
     <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="U58:U60"/>
-    <mergeCell ref="V58:V60"/>
-    <mergeCell ref="N58:N60"/>
-    <mergeCell ref="O58:O60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8253,7 +8328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8261,7 +8336,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -8269,7 +8344,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -8289,7 +8364,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -8309,7 +8384,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -8334,7 +8409,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -8356,7 +8431,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -8364,7 +8439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -8372,7 +8447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -8380,7 +8455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -8388,7 +8463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -8396,7 +8471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -8404,7 +8479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -8412,7 +8487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -8420,7 +8495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -8428,7 +8503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -8436,7 +8511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -8444,7 +8519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -8452,7 +8527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -8460,7 +8535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -8468,7 +8543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -8476,7 +8551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -8484,7 +8559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -8492,7 +8567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -8511,16 +8586,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8569,39 +8643,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8616,10 +8676,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ALOCACAO - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ALOCACAO - ATUALIZADO.xlsx
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="161">
   <si>
     <t>Schema</t>
   </si>
@@ -844,9 +844,6 @@
     <t>BI_ODS</t>
   </si>
   <si>
-    <t>xxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
     <t>Sem Transformação</t>
   </si>
   <si>
@@ -1060,6 +1057,9 @@
   </si>
   <si>
     <t>Verificar com Sylvio o valor correto a ser preenchido</t>
+  </si>
+  <si>
+    <t>REMUNERACAO_DOCENTE</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1879,9 +1879,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1890,6 +1887,24 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,15 +1914,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1947,14 +1953,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1962,9 +1965,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1995,8 +1995,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2015,42 +2039,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2352,9 +2340,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2745,28 +2733,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
@@ -2775,17 +2763,17 @@
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108" t="s">
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
@@ -2794,84 +2782,91 @@
       <c r="C12" s="29">
         <v>41238</v>
       </c>
-      <c r="D12" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
+      <c r="D12" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="101"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="101"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="101"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2882,13 +2877,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2948,17 +2936,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
@@ -2967,15 +2955,15 @@
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
@@ -3011,17 +2999,17 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
@@ -3078,11 +3066,11 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
@@ -3117,17 +3105,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
@@ -3154,44 +3142,37 @@
       <c r="B23" s="12"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3206,6 +3187,13 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3267,10 +3255,10 @@
   <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N51" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="R55" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O58" sqref="O58:O60"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4:S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3291,7 +3279,7 @@
     <col min="15" max="16" width="29.85546875" style="55" customWidth="1"/>
     <col min="17" max="17" width="40.5703125" style="55" customWidth="1"/>
     <col min="18" max="18" width="27" style="55" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" style="55" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="31.85546875" style="55" customWidth="1"/>
     <col min="21" max="21" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="9.85546875" style="2" customWidth="1"/>
@@ -3314,39 +3302,39 @@
       <c r="T1" s="56"/>
     </row>
     <row r="2" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="132" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
@@ -3444,23 +3432,23 @@
         <v>98</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K4" s="70">
         <v>40</v>
@@ -3468,31 +3456,31 @@
       <c r="L4" s="70"/>
       <c r="M4" s="70"/>
       <c r="N4" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O4" s="66"/>
       <c r="P4" s="67"/>
       <c r="Q4" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R4" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S4" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T4" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U4" s="73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V4" s="69"/>
       <c r="W4" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X4" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X4" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y4" s="70">
         <v>40</v>
@@ -3511,23 +3499,23 @@
         <v>98</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K5" s="70">
         <v>80</v>
@@ -3535,31 +3523,31 @@
       <c r="L5" s="70"/>
       <c r="M5" s="70"/>
       <c r="N5" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" s="66"/>
       <c r="P5" s="67"/>
       <c r="Q5" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R5" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S5" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T5" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U5" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V5" s="69"/>
       <c r="W5" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X5" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X5" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y5" s="70">
         <v>80</v>
@@ -3577,23 +3565,23 @@
         <v>98</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K6" s="70">
         <v>3</v>
@@ -3601,31 +3589,31 @@
       <c r="L6" s="70"/>
       <c r="M6" s="70"/>
       <c r="N6" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O6" s="66"/>
       <c r="P6" s="67"/>
       <c r="Q6" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R6" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S6" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T6" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U6" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V6" s="69"/>
       <c r="W6" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X6" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y6" s="70">
         <v>3</v>
@@ -3643,10 +3631,10 @@
         <v>98</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>79</v>
@@ -3656,10 +3644,10 @@
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K7" s="70">
         <v>10</v>
@@ -3667,18 +3655,18 @@
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
       <c r="N7" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O7" s="66"/>
       <c r="P7" s="67"/>
       <c r="Q7" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R7" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S7" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T7" s="73" t="s">
         <v>79</v>
@@ -3688,10 +3676,10 @@
       </c>
       <c r="V7" s="69"/>
       <c r="W7" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X7" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y7" s="70">
         <v>10</v>
@@ -3710,10 +3698,10 @@
         <v>98</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>80</v>
@@ -3723,10 +3711,10 @@
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K8" s="70">
         <v>10</v>
@@ -3734,18 +3722,18 @@
       <c r="L8" s="70"/>
       <c r="M8" s="70"/>
       <c r="N8" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O8" s="66"/>
       <c r="P8" s="67"/>
       <c r="Q8" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R8" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S8" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T8" s="73" t="s">
         <v>80</v>
@@ -3755,10 +3743,10 @@
       </c>
       <c r="V8" s="69"/>
       <c r="W8" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X8" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X8" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y8" s="70">
         <v>10</v>
@@ -3777,23 +3765,23 @@
         <v>98</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K9" s="72">
         <v>2</v>
@@ -3803,18 +3791,18 @@
       </c>
       <c r="M9" s="70"/>
       <c r="N9" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O9" s="66"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R9" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S9" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T9" s="73" t="s">
         <v>81</v>
@@ -3824,10 +3812,10 @@
       </c>
       <c r="V9" s="69"/>
       <c r="W9" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X9" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y9" s="72">
         <v>2</v>
@@ -3848,23 +3836,23 @@
         <v>98</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K10" s="70">
         <v>10</v>
@@ -3872,31 +3860,31 @@
       <c r="L10" s="72"/>
       <c r="M10" s="70"/>
       <c r="N10" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O10" s="66"/>
       <c r="P10" s="67"/>
       <c r="Q10" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R10" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S10" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T10" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U10" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V10" s="69"/>
       <c r="W10" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X10" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X10" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y10" s="70">
         <v>10</v>
@@ -3915,23 +3903,23 @@
         <v>98</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J11" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K11" s="70">
         <v>10</v>
@@ -3939,31 +3927,31 @@
       <c r="L11" s="72"/>
       <c r="M11" s="70"/>
       <c r="N11" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O11" s="66"/>
       <c r="P11" s="67"/>
       <c r="Q11" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R11" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S11" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T11" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U11" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V11" s="69"/>
       <c r="W11" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X11" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X11" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y11" s="70">
         <v>10</v>
@@ -3981,23 +3969,23 @@
         <v>98</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K12" s="70">
         <v>5</v>
@@ -4005,31 +3993,31 @@
       <c r="L12" s="72"/>
       <c r="M12" s="70"/>
       <c r="N12" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="66"/>
       <c r="P12" s="67"/>
       <c r="Q12" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R12" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S12" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T12" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U12" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V12" s="69"/>
       <c r="W12" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X12" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X12" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y12" s="70">
         <v>5</v>
@@ -4047,23 +4035,23 @@
         <v>98</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K13" s="70">
         <v>5</v>
@@ -4071,31 +4059,31 @@
       <c r="L13" s="72"/>
       <c r="M13" s="70"/>
       <c r="N13" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O13" s="66"/>
       <c r="P13" s="67"/>
       <c r="Q13" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R13" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S13" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T13" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U13" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V13" s="69"/>
       <c r="W13" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X13" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y13" s="70">
         <v>5</v>
@@ -4113,23 +4101,23 @@
         <v>98</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K14" s="72">
         <v>1</v>
@@ -4137,31 +4125,31 @@
       <c r="L14" s="72"/>
       <c r="M14" s="70"/>
       <c r="N14" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O14" s="66"/>
       <c r="P14" s="67"/>
       <c r="Q14" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R14" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S14" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T14" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U14" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V14" s="69"/>
       <c r="W14" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X14" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y14" s="72">
         <v>1</v>
@@ -4179,10 +4167,10 @@
         <v>98</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="73" t="s">
         <v>82</v>
@@ -4192,10 +4180,10 @@
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" s="72">
         <v>4</v>
@@ -4205,18 +4193,18 @@
       </c>
       <c r="M15" s="70"/>
       <c r="N15" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O15" s="66"/>
       <c r="P15" s="67"/>
       <c r="Q15" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R15" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S15" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T15" s="73" t="s">
         <v>82</v>
@@ -4226,10 +4214,10 @@
       </c>
       <c r="V15" s="69"/>
       <c r="W15" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X15" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y15" s="72">
         <v>4</v>
@@ -4250,10 +4238,10 @@
         <v>98</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>83</v>
@@ -4263,10 +4251,10 @@
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K16" s="72">
         <v>1</v>
@@ -4274,18 +4262,18 @@
       <c r="L16" s="70"/>
       <c r="M16" s="70"/>
       <c r="N16" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O16" s="66"/>
       <c r="P16" s="67"/>
       <c r="Q16" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R16" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S16" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T16" s="73" t="s">
         <v>83</v>
@@ -4295,10 +4283,10 @@
       </c>
       <c r="V16" s="70"/>
       <c r="W16" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X16" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y16" s="72">
         <v>1</v>
@@ -4317,10 +4305,10 @@
         <v>98</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="73" t="s">
         <v>84</v>
@@ -4330,27 +4318,27 @@
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="70"/>
       <c r="L17" s="70"/>
       <c r="M17" s="70"/>
       <c r="N17" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O17" s="66"/>
       <c r="P17" s="67"/>
       <c r="Q17" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R17" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S17" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T17" s="73" t="s">
         <v>84</v>
@@ -4360,10 +4348,10 @@
       </c>
       <c r="V17" s="70"/>
       <c r="W17" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X17" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y17" s="70">
         <v>4</v>
@@ -4384,53 +4372,53 @@
         <v>98</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K18" s="70"/>
       <c r="L18" s="70"/>
       <c r="M18" s="70"/>
       <c r="N18" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O18" s="66"/>
       <c r="P18" s="67"/>
       <c r="Q18" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R18" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S18" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T18" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U18" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V18" s="70"/>
       <c r="W18" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X18" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y18" s="70"/>
       <c r="Z18" s="70"/>
@@ -4447,10 +4435,10 @@
         <v>98</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="73" t="s">
         <v>85</v>
@@ -4460,10 +4448,10 @@
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J19" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K19" s="70">
         <v>11</v>
@@ -4471,18 +4459,18 @@
       <c r="L19" s="70"/>
       <c r="M19" s="70"/>
       <c r="N19" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O19" s="66"/>
       <c r="P19" s="67"/>
       <c r="Q19" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R19" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S19" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T19" s="73" t="s">
         <v>85</v>
@@ -4492,10 +4480,10 @@
       </c>
       <c r="V19" s="70"/>
       <c r="W19" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X19" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X19" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y19" s="70">
         <v>11</v>
@@ -4514,23 +4502,23 @@
         <v>98</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K20" s="70">
         <v>6</v>
@@ -4540,31 +4528,31 @@
       </c>
       <c r="M20" s="70"/>
       <c r="N20" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O20" s="66"/>
       <c r="P20" s="67"/>
       <c r="Q20" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R20" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S20" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T20" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U20" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V20" s="70"/>
       <c r="W20" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X20" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y20" s="70">
         <v>6</v>
@@ -4585,53 +4573,53 @@
         <v>98</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
       <c r="M21" s="70"/>
       <c r="N21" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O21" s="66"/>
       <c r="P21" s="67"/>
       <c r="Q21" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R21" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S21" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T21" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U21" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V21" s="70"/>
       <c r="W21" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X21" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y21" s="70"/>
       <c r="Z21" s="70"/>
@@ -4648,23 +4636,23 @@
         <v>98</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K22" s="72">
         <v>12</v>
@@ -4674,31 +4662,31 @@
       </c>
       <c r="M22" s="70"/>
       <c r="N22" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O22" s="79"/>
       <c r="P22" s="76"/>
       <c r="Q22" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R22" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S22" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T22" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U22" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V22" s="70"/>
       <c r="W22" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X22" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y22" s="72">
         <v>12</v>
@@ -4719,10 +4707,10 @@
         <v>98</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="73" t="s">
         <v>86</v>
@@ -4732,10 +4720,10 @@
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J23" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K23" s="70">
         <v>1</v>
@@ -4743,18 +4731,18 @@
       <c r="L23" s="70"/>
       <c r="M23" s="70"/>
       <c r="N23" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O23" s="66"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R23" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S23" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T23" s="73" t="s">
         <v>86</v>
@@ -4764,10 +4752,10 @@
       </c>
       <c r="V23" s="70"/>
       <c r="W23" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X23" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X23" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y23" s="70">
         <v>1</v>
@@ -4786,10 +4774,10 @@
         <v>98</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" s="73" t="s">
         <v>87</v>
@@ -4799,10 +4787,10 @@
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" s="72">
         <v>8</v>
@@ -4812,18 +4800,18 @@
       </c>
       <c r="M24" s="70"/>
       <c r="N24" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O24" s="66"/>
       <c r="P24" s="67"/>
       <c r="Q24" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R24" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S24" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T24" s="73" t="s">
         <v>87</v>
@@ -4833,10 +4821,10 @@
       </c>
       <c r="V24" s="70"/>
       <c r="W24" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X24" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y24" s="72">
         <v>8</v>
@@ -4857,10 +4845,10 @@
         <v>98</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" s="73" t="s">
         <v>88</v>
@@ -4870,10 +4858,10 @@
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K25" s="70">
         <v>5</v>
@@ -4881,18 +4869,18 @@
       <c r="L25" s="70"/>
       <c r="M25" s="70"/>
       <c r="N25" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O25" s="66"/>
       <c r="P25" s="67"/>
       <c r="Q25" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R25" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S25" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T25" s="73" t="s">
         <v>88</v>
@@ -4902,10 +4890,10 @@
       </c>
       <c r="V25" s="70"/>
       <c r="W25" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X25" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X25" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y25" s="70">
         <v>5</v>
@@ -4924,10 +4912,10 @@
         <v>98</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="73" t="s">
         <v>89</v>
@@ -4937,10 +4925,10 @@
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K26" s="70">
         <v>10</v>
@@ -4948,18 +4936,18 @@
       <c r="L26" s="70"/>
       <c r="M26" s="70"/>
       <c r="N26" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O26" s="77"/>
       <c r="P26" s="78"/>
       <c r="Q26" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R26" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S26" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T26" s="73" t="s">
         <v>89</v>
@@ -4969,10 +4957,10 @@
       </c>
       <c r="V26" s="70"/>
       <c r="W26" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X26" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X26" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y26" s="70">
         <v>10</v>
@@ -4991,10 +4979,10 @@
         <v>98</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" s="73" t="s">
         <v>90</v>
@@ -5004,10 +4992,10 @@
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J27" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K27" s="70">
         <v>2</v>
@@ -5015,18 +5003,18 @@
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
       <c r="N27" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O27" s="66"/>
       <c r="P27" s="67"/>
       <c r="Q27" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R27" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S27" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T27" s="73" t="s">
         <v>90</v>
@@ -5036,10 +5024,10 @@
       </c>
       <c r="V27" s="70"/>
       <c r="W27" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X27" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X27" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y27" s="70">
         <v>2</v>
@@ -5058,23 +5046,23 @@
         <v>98</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H28" s="70"/>
       <c r="I28" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J28" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K28" s="70">
         <v>15</v>
@@ -5082,31 +5070,31 @@
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
       <c r="N28" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O28" s="66"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R28" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S28" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T28" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U28" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V28" s="70"/>
       <c r="W28" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X28" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X28" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y28" s="70">
         <v>15</v>
@@ -5125,23 +5113,23 @@
         <v>98</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J29" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K29" s="70">
         <v>2</v>
@@ -5149,31 +5137,31 @@
       <c r="L29" s="70"/>
       <c r="M29" s="70"/>
       <c r="N29" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O29" s="66"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R29" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S29" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T29" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U29" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V29" s="70"/>
       <c r="W29" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X29" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X29" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y29" s="70">
         <v>2</v>
@@ -5192,10 +5180,10 @@
         <v>98</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="73" t="s">
         <v>91</v>
@@ -5205,10 +5193,10 @@
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J30" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K30" s="70">
         <v>5</v>
@@ -5216,18 +5204,18 @@
       <c r="L30" s="70"/>
       <c r="M30" s="70"/>
       <c r="N30" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="67"/>
       <c r="Q30" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R30" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S30" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T30" s="73" t="s">
         <v>91</v>
@@ -5237,10 +5225,10 @@
       </c>
       <c r="V30" s="70"/>
       <c r="W30" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X30" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X30" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y30" s="70">
         <v>5</v>
@@ -5259,10 +5247,10 @@
         <v>98</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="73" t="s">
         <v>92</v>
@@ -5272,10 +5260,10 @@
       </c>
       <c r="H31" s="70"/>
       <c r="I31" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K31" s="72">
         <v>11</v>
@@ -5285,18 +5273,18 @@
       </c>
       <c r="M31" s="70"/>
       <c r="N31" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="66"/>
       <c r="P31" s="67"/>
       <c r="Q31" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R31" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S31" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T31" s="73" t="s">
         <v>92</v>
@@ -5306,10 +5294,10 @@
       </c>
       <c r="V31" s="70"/>
       <c r="W31" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X31" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y31" s="72">
         <v>11</v>
@@ -5330,23 +5318,23 @@
         <v>98</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F32" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G32" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="70"/>
       <c r="I32" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J32" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K32" s="70">
         <v>1</v>
@@ -5354,31 +5342,31 @@
       <c r="L32" s="70"/>
       <c r="M32" s="70"/>
       <c r="N32" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="66"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R32" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S32" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T32" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U32" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V32" s="70"/>
       <c r="W32" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X32" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X32" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y32" s="70">
         <v>1</v>
@@ -5397,53 +5385,53 @@
         <v>98</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F33" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G33" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70"/>
       <c r="N33" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="66"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R33" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S33" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T33" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U33" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V33" s="70"/>
       <c r="W33" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X33" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y33" s="70"/>
       <c r="Z33" s="70"/>
@@ -5460,53 +5448,53 @@
         <v>98</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G34" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34" s="70"/>
       <c r="I34" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J34" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70"/>
       <c r="N34" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="66"/>
       <c r="P34" s="67"/>
       <c r="Q34" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R34" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S34" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T34" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U34" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V34" s="70"/>
       <c r="W34" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X34" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y34" s="70"/>
       <c r="Z34" s="70"/>
@@ -5523,53 +5511,53 @@
         <v>98</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35" s="70"/>
       <c r="I35" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J35" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
       <c r="M35" s="70"/>
       <c r="N35" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O35" s="66"/>
       <c r="P35" s="67"/>
       <c r="Q35" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R35" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S35" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T35" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U35" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V35" s="70"/>
       <c r="W35" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X35" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y35" s="70"/>
       <c r="Z35" s="70"/>
@@ -5586,23 +5574,23 @@
         <v>98</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36" s="73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J36" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K36" s="72">
         <v>5</v>
@@ -5610,33 +5598,33 @@
       <c r="L36" s="72">
         <v>2</v>
       </c>
-      <c r="M36" s="93"/>
+      <c r="M36" s="92"/>
       <c r="N36" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O36" s="66"/>
       <c r="P36" s="67"/>
       <c r="Q36" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R36" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S36" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T36" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U36" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V36" s="70"/>
       <c r="W36" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X36" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y36" s="72">
         <v>5</v>
@@ -5660,10 +5648,10 @@
       </c>
       <c r="H37" s="70"/>
       <c r="I37" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J37" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K37" s="70">
         <v>100</v>
@@ -5671,18 +5659,18 @@
       <c r="L37" s="70"/>
       <c r="M37" s="70"/>
       <c r="N37" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O37" s="66"/>
       <c r="P37" s="67"/>
       <c r="Q37" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R37" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S37" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T37" s="70" t="s">
         <v>95</v>
@@ -5692,10 +5680,10 @@
       </c>
       <c r="V37" s="70"/>
       <c r="W37" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X37" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y37" s="70">
         <v>100</v>
@@ -5714,10 +5702,10 @@
         <v>98</v>
       </c>
       <c r="D38" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" s="73" t="s">
         <v>93</v>
@@ -5727,10 +5715,10 @@
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J38" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K38" s="70">
         <v>6</v>
@@ -5740,18 +5728,18 @@
       </c>
       <c r="M38" s="70"/>
       <c r="N38" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O38" s="66"/>
       <c r="P38" s="67"/>
       <c r="Q38" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R38" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S38" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T38" s="73" t="s">
         <v>93</v>
@@ -5761,10 +5749,10 @@
       </c>
       <c r="V38" s="70"/>
       <c r="W38" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X38" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y38" s="70">
         <v>6</v>
@@ -5785,23 +5773,23 @@
         <v>98</v>
       </c>
       <c r="D39" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G39" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" s="70"/>
       <c r="I39" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J39" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K39" s="70">
         <v>1</v>
@@ -5809,31 +5797,31 @@
       <c r="L39" s="70"/>
       <c r="M39" s="70"/>
       <c r="N39" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O39" s="89"/>
       <c r="P39" s="89"/>
-      <c r="Q39" s="75" t="s">
-        <v>99</v>
+      <c r="Q39" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R39" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S39" s="75" t="s">
-        <v>99</v>
+      <c r="S39" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T39" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U39" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V39" s="70"/>
       <c r="W39" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X39" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X39" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y39" s="70">
         <v>1</v>
@@ -5852,23 +5840,23 @@
         <v>98</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G40" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H40" s="70"/>
       <c r="I40" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J40" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K40" s="70">
         <v>40</v>
@@ -5876,31 +5864,31 @@
       <c r="L40" s="70"/>
       <c r="M40" s="70"/>
       <c r="N40" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O40" s="89"/>
       <c r="P40" s="89"/>
-      <c r="Q40" s="75" t="s">
-        <v>99</v>
+      <c r="Q40" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R40" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S40" s="75" t="s">
-        <v>99</v>
+      <c r="S40" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T40" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U40" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V40" s="70"/>
       <c r="W40" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X40" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X40" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y40" s="70">
         <v>40</v>
@@ -5919,53 +5907,53 @@
         <v>98</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G41" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J41" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K41" s="70"/>
       <c r="L41" s="70"/>
       <c r="M41" s="70"/>
       <c r="N41" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O41" s="88"/>
       <c r="P41" s="88"/>
-      <c r="Q41" s="75" t="s">
-        <v>99</v>
+      <c r="Q41" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R41" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S41" s="75" t="s">
-        <v>99</v>
+      <c r="S41" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T41" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U41" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V41" s="70"/>
       <c r="W41" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X41" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y41" s="70"/>
       <c r="Z41" s="70"/>
@@ -5982,53 +5970,53 @@
         <v>98</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F42" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G42" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J42" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K42" s="70"/>
       <c r="L42" s="70"/>
       <c r="M42" s="70"/>
       <c r="N42" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="75" t="s">
-        <v>99</v>
+      <c r="Q42" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R42" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S42" s="75" t="s">
-        <v>99</v>
+      <c r="S42" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T42" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U42" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V42" s="70"/>
       <c r="W42" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X42" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y42" s="70"/>
       <c r="Z42" s="70"/>
@@ -6045,23 +6033,23 @@
         <v>98</v>
       </c>
       <c r="D43" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F43" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G43" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" s="70"/>
       <c r="I43" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J43" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K43" s="70">
         <v>1</v>
@@ -6069,31 +6057,31 @@
       <c r="L43" s="70"/>
       <c r="M43" s="70"/>
       <c r="N43" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O43" s="75"/>
       <c r="P43" s="75"/>
-      <c r="Q43" s="75" t="s">
-        <v>99</v>
+      <c r="Q43" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R43" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S43" s="75" t="s">
-        <v>99</v>
+      <c r="S43" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T43" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U43" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V43" s="70"/>
       <c r="W43" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X43" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X43" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y43" s="70">
         <v>1</v>
@@ -6112,23 +6100,23 @@
         <v>98</v>
       </c>
       <c r="D44" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F44" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H44" s="70"/>
       <c r="I44" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J44" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K44" s="70">
         <v>3</v>
@@ -6138,31 +6126,31 @@
       </c>
       <c r="M44" s="70"/>
       <c r="N44" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O44" s="80"/>
       <c r="P44" s="80"/>
-      <c r="Q44" s="75" t="s">
-        <v>99</v>
+      <c r="Q44" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R44" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S44" s="75" t="s">
-        <v>99</v>
+      <c r="S44" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T44" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U44" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V44" s="70"/>
       <c r="W44" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X44" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y44" s="70">
         <v>3</v>
@@ -6183,53 +6171,53 @@
         <v>98</v>
       </c>
       <c r="D45" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H45" s="70"/>
       <c r="I45" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J45" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K45" s="70"/>
       <c r="L45" s="70"/>
-      <c r="M45" s="94"/>
+      <c r="M45" s="93"/>
       <c r="N45" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O45" s="66"/>
       <c r="P45" s="67"/>
       <c r="Q45" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R45" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S45" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T45" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U45" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V45" s="70"/>
       <c r="W45" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X45" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y45" s="70"/>
       <c r="Z45" s="70"/>
@@ -6246,53 +6234,53 @@
         <v>98</v>
       </c>
       <c r="D46" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G46" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J46" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K46" s="70"/>
       <c r="L46" s="70"/>
-      <c r="M46" s="93"/>
+      <c r="M46" s="92"/>
       <c r="N46" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O46" s="82"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R46" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S46" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T46" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U46" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V46" s="70"/>
       <c r="W46" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X46" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y46" s="70"/>
       <c r="Z46" s="70"/>
@@ -6309,23 +6297,23 @@
         <v>98</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G47" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H47" s="70"/>
       <c r="I47" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J47" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K47" s="70">
         <v>1</v>
@@ -6333,31 +6321,31 @@
       <c r="L47" s="70"/>
       <c r="M47" s="70"/>
       <c r="N47" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O47" s="82"/>
       <c r="P47" s="83"/>
       <c r="Q47" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R47" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S47" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T47" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U47" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V47" s="70"/>
       <c r="W47" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X47" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X47" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y47" s="70">
         <v>1</v>
@@ -6376,23 +6364,23 @@
         <v>98</v>
       </c>
       <c r="D48" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48" s="73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G48" s="73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H48" s="70"/>
       <c r="I48" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J48" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K48" s="70">
         <v>1</v>
@@ -6400,31 +6388,31 @@
       <c r="L48" s="70"/>
       <c r="M48" s="70"/>
       <c r="N48" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O48" s="82"/>
       <c r="P48" s="83"/>
       <c r="Q48" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R48" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S48" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T48" s="73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U48" s="73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V48" s="70"/>
       <c r="W48" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X48" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X48" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y48" s="70">
         <v>1</v>
@@ -6443,10 +6431,10 @@
         <v>98</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F49" s="73" t="s">
         <v>94</v>
@@ -6456,10 +6444,10 @@
       </c>
       <c r="H49" s="70"/>
       <c r="I49" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J49" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K49" s="70">
         <v>1</v>
@@ -6467,18 +6455,18 @@
       <c r="L49" s="70"/>
       <c r="M49" s="70"/>
       <c r="N49" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O49" s="82"/>
       <c r="P49" s="83"/>
       <c r="Q49" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R49" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S49" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T49" s="73" t="s">
         <v>94</v>
@@ -6488,10 +6476,10 @@
       </c>
       <c r="V49" s="70"/>
       <c r="W49" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X49" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X49" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y49" s="70">
         <v>1</v>
@@ -6510,23 +6498,23 @@
         <v>98</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F50" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G50" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H50" s="70"/>
       <c r="I50" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J50" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K50" s="70">
         <v>4</v>
@@ -6536,31 +6524,31 @@
       </c>
       <c r="M50" s="70"/>
       <c r="N50" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O50" s="82"/>
       <c r="P50" s="83"/>
       <c r="Q50" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R50" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S50" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T50" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U50" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V50" s="70"/>
       <c r="W50" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X50" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y50" s="70">
         <v>4</v>
@@ -6581,23 +6569,23 @@
         <v>98</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G51" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H51" s="70"/>
       <c r="I51" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J51" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K51" s="70">
         <v>6</v>
@@ -6607,31 +6595,31 @@
       </c>
       <c r="M51" s="70"/>
       <c r="N51" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O51" s="82"/>
       <c r="P51" s="83"/>
       <c r="Q51" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R51" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S51" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T51" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U51" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V51" s="70"/>
       <c r="W51" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X51" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y51" s="70">
         <v>6</v>
@@ -6652,53 +6640,53 @@
         <v>98</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H52" s="70"/>
       <c r="I52" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J52" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K52" s="70"/>
       <c r="L52" s="70"/>
       <c r="M52" s="70"/>
       <c r="N52" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O52" s="82"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="R52" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S52" s="68" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="T52" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U52" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V52" s="70"/>
       <c r="W52" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X52" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y52" s="70"/>
       <c r="Z52" s="70"/>
@@ -6713,17 +6701,17 @@
       <c r="D53" s="86"/>
       <c r="E53" s="87"/>
       <c r="F53" s="73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G53" s="73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H53" s="70"/>
       <c r="I53" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J53" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K53" s="70">
         <v>1</v>
@@ -6731,31 +6719,31 @@
       <c r="L53" s="70"/>
       <c r="M53" s="70"/>
       <c r="N53" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O53" s="82"/>
       <c r="P53" s="83"/>
-      <c r="Q53" s="91" t="s">
-        <v>99</v>
+      <c r="Q53" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R53" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S53" s="91" t="s">
-        <v>99</v>
+      <c r="S53" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T53" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U53" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V53" s="70"/>
       <c r="W53" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X53" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X53" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y53" s="70">
         <v>1</v>
@@ -6779,10 +6767,10 @@
       </c>
       <c r="H54" s="70"/>
       <c r="I54" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J54" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K54" s="70">
         <v>30</v>
@@ -6790,18 +6778,18 @@
       <c r="L54" s="70"/>
       <c r="M54" s="70"/>
       <c r="N54" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O54" s="82"/>
       <c r="P54" s="83"/>
-      <c r="Q54" s="91" t="s">
-        <v>99</v>
+      <c r="Q54" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R54" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S54" s="91" t="s">
-        <v>99</v>
+      <c r="S54" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T54" s="75" t="s">
         <v>96</v>
@@ -6811,10 +6799,10 @@
       </c>
       <c r="V54" s="70"/>
       <c r="W54" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X54" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X54" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y54" s="70">
         <v>30</v>
@@ -6830,17 +6818,17 @@
       <c r="D55" s="85"/>
       <c r="E55" s="87"/>
       <c r="F55" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G55" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H55" s="70"/>
       <c r="I55" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J55" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K55" s="70">
         <v>15</v>
@@ -6848,31 +6836,31 @@
       <c r="L55" s="70"/>
       <c r="M55" s="70"/>
       <c r="N55" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O55" s="66"/>
       <c r="P55" s="67"/>
-      <c r="Q55" s="91" t="s">
-        <v>99</v>
+      <c r="Q55" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R55" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S55" s="91" t="s">
-        <v>99</v>
+      <c r="S55" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T55" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U55" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V55" s="70"/>
       <c r="W55" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X55" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X55" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y55" s="70">
         <v>15</v>
@@ -6890,23 +6878,23 @@
         <v>98</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56" s="73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G56" s="73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H56" s="70"/>
       <c r="I56" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J56" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K56" s="72">
         <v>5</v>
@@ -6916,33 +6904,33 @@
       </c>
       <c r="M56" s="70"/>
       <c r="N56" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O56" s="66"/>
       <c r="P56" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q56" s="91" t="s">
-        <v>99</v>
+        <v>158</v>
+      </c>
+      <c r="Q56" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R56" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S56" s="91" t="s">
-        <v>99</v>
+      <c r="S56" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T56" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U56" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V56" s="70"/>
       <c r="W56" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X56" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y56" s="72">
         <v>5</v>
@@ -6960,17 +6948,17 @@
       <c r="D57" s="85"/>
       <c r="E57" s="87"/>
       <c r="F57" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G57" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H57" s="70"/>
       <c r="I57" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J57" s="70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K57" s="70">
         <v>6</v>
@@ -6980,31 +6968,31 @@
       </c>
       <c r="M57" s="70"/>
       <c r="N57" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O57" s="66"/>
       <c r="P57" s="67"/>
-      <c r="Q57" s="91" t="s">
-        <v>99</v>
+      <c r="Q57" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R57" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S57" s="91" t="s">
-        <v>99</v>
+      <c r="S57" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T57" s="75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U57" s="75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V57" s="70"/>
       <c r="W57" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X57" s="70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y57" s="70">
         <v>6</v>
@@ -7024,63 +7012,63 @@
         <v>98</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F58" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G58" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H58" s="73"/>
       <c r="I58" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J58" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J58" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K58" s="70">
         <v>5</v>
       </c>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
-      <c r="N58" s="147" t="s">
-        <v>147</v>
-      </c>
-      <c r="O58" s="138"/>
-      <c r="P58" s="138"/>
-      <c r="Q58" s="141" t="s">
-        <v>99</v>
-      </c>
-      <c r="R58" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="S58" s="141" t="s">
-        <v>99</v>
-      </c>
-      <c r="T58" s="144" t="s">
+      <c r="N58" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="U58" s="144" t="s">
-        <v>146</v>
-      </c>
-      <c r="V58" s="147"/>
+      <c r="O58" s="137"/>
+      <c r="P58" s="137"/>
+      <c r="Q58" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="R58" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="S58" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="T58" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="U58" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="V58" s="131"/>
       <c r="W58" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X58" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X58" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y58" s="70">
         <v>5</v>
       </c>
       <c r="Z58" s="70"/>
-      <c r="AA58" s="147"/>
-      <c r="AB58" s="147"/>
-      <c r="AC58" s="147"/>
+      <c r="AA58" s="131"/>
+      <c r="AB58" s="131"/>
+      <c r="AC58" s="131"/>
     </row>
     <row r="59" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
@@ -7090,51 +7078,55 @@
         <v>98</v>
       </c>
       <c r="D59" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F59" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G59" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H59" s="73"/>
       <c r="I59" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J59" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K59" s="70">
         <v>5</v>
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
-      <c r="N59" s="148"/>
-      <c r="O59" s="139"/>
-      <c r="P59" s="139"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="145"/>
-      <c r="S59" s="142"/>
-      <c r="T59" s="145"/>
-      <c r="U59" s="145"/>
-      <c r="V59" s="148"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="138"/>
+      <c r="P59" s="138"/>
+      <c r="Q59" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="R59" s="135"/>
+      <c r="S59" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="T59" s="135"/>
+      <c r="U59" s="135"/>
+      <c r="V59" s="132"/>
       <c r="W59" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X59" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X59" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y59" s="70">
         <v>5</v>
       </c>
       <c r="Z59" s="70"/>
-      <c r="AA59" s="148"/>
-      <c r="AB59" s="148"/>
-      <c r="AC59" s="148"/>
+      <c r="AA59" s="132"/>
+      <c r="AB59" s="132"/>
+      <c r="AC59" s="132"/>
     </row>
     <row r="60" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="70" t="s">
@@ -7144,51 +7136,55 @@
         <v>98</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E60" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F60" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G60" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60" s="70"/>
       <c r="I60" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J60" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J60" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K60" s="70">
         <v>1</v>
       </c>
       <c r="L60" s="70"/>
       <c r="M60" s="70"/>
-      <c r="N60" s="149"/>
-      <c r="O60" s="140"/>
-      <c r="P60" s="140"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="146"/>
-      <c r="S60" s="143"/>
-      <c r="T60" s="146"/>
-      <c r="U60" s="146"/>
-      <c r="V60" s="149"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="139"/>
+      <c r="P60" s="139"/>
+      <c r="Q60" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="R60" s="136"/>
+      <c r="S60" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="T60" s="136"/>
+      <c r="U60" s="136"/>
+      <c r="V60" s="133"/>
       <c r="W60" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="X60" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="X60" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="Y60" s="70">
         <v>1</v>
       </c>
       <c r="Z60" s="70"/>
-      <c r="AA60" s="149"/>
-      <c r="AB60" s="149"/>
-      <c r="AC60" s="149"/>
+      <c r="AA60" s="133"/>
+      <c r="AB60" s="133"/>
+      <c r="AC60" s="133"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B61" s="85"/>
@@ -7196,17 +7192,17 @@
       <c r="D61" s="85"/>
       <c r="E61" s="87"/>
       <c r="F61" s="73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G61" s="73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H61" s="70"/>
       <c r="I61" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J61" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K61" s="70">
         <v>1</v>
@@ -7214,38 +7210,38 @@
       <c r="L61" s="70"/>
       <c r="M61" s="70"/>
       <c r="N61" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O61" s="66"/>
       <c r="P61" s="67"/>
-      <c r="Q61" s="91" t="s">
-        <v>99</v>
+      <c r="Q61" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R61" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S61" s="91" t="s">
-        <v>99</v>
+      <c r="S61" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T61" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U61" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="V61" s="92"/>
+        <v>157</v>
+      </c>
+      <c r="V61" s="91"/>
       <c r="W61" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X61" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y61" s="70">
         <v>1</v>
       </c>
       <c r="Z61" s="70"/>
-      <c r="AA61" s="92"/>
-      <c r="AB61" s="92"/>
+      <c r="AA61" s="91"/>
+      <c r="AB61" s="91"/>
       <c r="AC61" s="70"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -7254,56 +7250,56 @@
       <c r="D62" s="85"/>
       <c r="E62" s="87"/>
       <c r="F62" s="73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G62" s="73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H62" s="70"/>
       <c r="I62" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="J62" s="69" t="s">
         <v>155</v>
-      </c>
-      <c r="J62" s="69" t="s">
-        <v>156</v>
       </c>
       <c r="K62" s="70">
         <v>2</v>
       </c>
       <c r="L62" s="70"/>
       <c r="M62" s="70"/>
-      <c r="N62" s="95" t="s">
-        <v>160</v>
+      <c r="N62" s="94" t="s">
+        <v>159</v>
       </c>
       <c r="O62" s="66"/>
       <c r="P62" s="67"/>
-      <c r="Q62" s="91" t="s">
-        <v>99</v>
+      <c r="Q62" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R62" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S62" s="91" t="s">
-        <v>99</v>
+      <c r="S62" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T62" s="73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U62" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="V62" s="92"/>
+        <v>150</v>
+      </c>
+      <c r="V62" s="91"/>
       <c r="W62" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X62" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y62" s="70">
         <v>2</v>
       </c>
       <c r="Z62" s="70"/>
-      <c r="AA62" s="92"/>
-      <c r="AB62" s="92"/>
+      <c r="AA62" s="91"/>
+      <c r="AB62" s="91"/>
       <c r="AC62" s="70"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -7312,52 +7308,52 @@
       <c r="D63" s="85"/>
       <c r="E63" s="87"/>
       <c r="F63" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G63" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H63" s="70"/>
       <c r="I63" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J63" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K63" s="70"/>
       <c r="L63" s="70"/>
       <c r="M63" s="70"/>
       <c r="N63" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O63" s="66"/>
       <c r="P63" s="67"/>
-      <c r="Q63" s="91" t="s">
-        <v>99</v>
+      <c r="Q63" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="R63" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S63" s="91" t="s">
-        <v>99</v>
+      <c r="S63" s="68" t="s">
+        <v>160</v>
       </c>
       <c r="T63" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U63" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="V63" s="92"/>
+        <v>148</v>
+      </c>
+      <c r="V63" s="91"/>
       <c r="W63" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X63" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y63" s="70"/>
       <c r="Z63" s="70"/>
-      <c r="AA63" s="92"/>
-      <c r="AB63" s="92"/>
+      <c r="AA63" s="91"/>
+      <c r="AB63" s="91"/>
       <c r="AC63" s="70"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -8303,22 +8299,20 @@
       <c r="U104" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="P58:P60"/>
+    <mergeCell ref="R58:R60"/>
+    <mergeCell ref="T58:T60"/>
+    <mergeCell ref="AA58:AA60"/>
+    <mergeCell ref="AB58:AB60"/>
     <mergeCell ref="AC58:AC60"/>
     <mergeCell ref="U58:U60"/>
     <mergeCell ref="V58:V60"/>
     <mergeCell ref="N58:N60"/>
     <mergeCell ref="O58:O60"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="P58:P60"/>
-    <mergeCell ref="Q58:Q60"/>
-    <mergeCell ref="R58:R60"/>
-    <mergeCell ref="S58:S60"/>
-    <mergeCell ref="T58:T60"/>
-    <mergeCell ref="AA58:AA60"/>
-    <mergeCell ref="AB58:AB60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8586,15 +8580,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8643,25 +8638,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8676,25 +8685,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ALOCACAO - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - APURACAO_ALOCACAO - ATUALIZADO.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="405" windowWidth="14700" windowHeight="5295" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="915" yWindow="405" windowWidth="14700" windowHeight="5295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho Mapa P1" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="161">
   <si>
     <t>Schema</t>
   </si>
@@ -844,6 +844,9 @@
     <t>BI_ODS</t>
   </si>
   <si>
+    <t>xxxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
     <t>Sem Transformação</t>
   </si>
   <si>
@@ -1058,15 +1061,12 @@
   <si>
     <t>Verificar com Sylvio o valor correto a ser preenchido</t>
   </si>
-  <si>
-    <t>REMUNERACAO_DOCENTE</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1627,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1879,6 +1879,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2039,6 +2042,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2062,7 +2074,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2092,7 +2104,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2159,7 +2171,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2207,7 +2219,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2230,14 +2242,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2280,7 +2292,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2303,14 +2315,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2324,52 +2336,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>24</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15361"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2459,7 +2425,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2494,7 +2459,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2670,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2680,7 +2644,7 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2689,7 +2653,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2697,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -2705,22 +2669,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="C5" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2731,132 +2695,132 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="104" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110" t="s">
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="29">
         <v>41238</v>
       </c>
-      <c r="D12" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="117"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2886,7 +2850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2896,7 +2860,7 @@
       <selection activeCell="D8" sqref="D8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2905,7 +2869,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2914,7 +2878,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -2923,7 +2887,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -2934,60 +2898,60 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="118" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="51" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-    </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2998,20 +2962,20 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="119" t="s">
+    <row r="11" spans="2:10">
+      <c r="B11" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-    </row>
-    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+    </row>
+    <row r="12" spans="2:10" ht="23.25" customHeight="1">
       <c r="B12" s="47" t="s">
         <v>65</v>
       </c>
@@ -3021,40 +2985,40 @@
       <c r="D12" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="127" t="s">
+      <c r="F12" s="130"/>
+      <c r="G12" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-    </row>
-    <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+    </row>
+    <row r="15" spans="2:10" ht="13.5" thickBot="1">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3065,14 +3029,14 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="119" t="s">
+    <row r="16" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B16" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="46" t="s">
         <v>66</v>
       </c>
@@ -3083,17 +3047,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3104,20 +3068,20 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="118" t="s">
+    <row r="21" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B21" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+    </row>
+    <row r="22" spans="2:10" ht="23.25">
       <c r="B22" s="51" t="s">
         <v>71</v>
       </c>
@@ -3127,49 +3091,49 @@
       <c r="D22" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122" t="s">
+      <c r="F22" s="123"/>
+      <c r="G22" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="12"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="12"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="12"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3204,64 +3168,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="R55" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D54" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4:S63"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3279,7 +3216,7 @@
     <col min="15" max="16" width="29.85546875" style="55" customWidth="1"/>
     <col min="17" max="17" width="40.5703125" style="55" customWidth="1"/>
     <col min="18" max="18" width="27" style="55" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="55" customWidth="1"/>
     <col min="20" max="20" width="31.85546875" style="55" customWidth="1"/>
     <col min="21" max="21" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="9.85546875" style="2" customWidth="1"/>
@@ -3294,52 +3231,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29">
       <c r="D1" s="81"/>
       <c r="Q1" s="56"/>
       <c r="R1" s="56"/>
       <c r="S1" s="56"/>
       <c r="T1" s="56"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="142" t="s">
+    <row r="2" spans="1:29" ht="25.5" customHeight="1">
+      <c r="B2" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="140" t="s">
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3423,7 +3360,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A4" s="15"/>
       <c r="B4" s="70" t="s">
         <v>97</v>
@@ -3432,23 +3369,23 @@
         <v>98</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K4" s="70">
         <v>40</v>
@@ -3456,31 +3393,31 @@
       <c r="L4" s="70"/>
       <c r="M4" s="70"/>
       <c r="N4" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O4" s="66"/>
       <c r="P4" s="67"/>
       <c r="Q4" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R4" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S4" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T4" s="73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U4" s="73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V4" s="69"/>
       <c r="W4" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X4" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y4" s="70">
         <v>40</v>
@@ -3490,7 +3427,7 @@
       <c r="AB4" s="70"/>
       <c r="AC4" s="70"/>
     </row>
-    <row r="5" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A5" s="15"/>
       <c r="B5" s="70" t="s">
         <v>97</v>
@@ -3499,23 +3436,23 @@
         <v>98</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K5" s="70">
         <v>80</v>
@@ -3523,31 +3460,31 @@
       <c r="L5" s="70"/>
       <c r="M5" s="70"/>
       <c r="N5" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="66"/>
       <c r="P5" s="67"/>
       <c r="Q5" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R5" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S5" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T5" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U5" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V5" s="69"/>
       <c r="W5" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X5" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y5" s="70">
         <v>80</v>
@@ -3557,7 +3494,7 @@
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
     </row>
-    <row r="6" spans="1:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="10" customFormat="1" ht="12">
       <c r="B6" s="70" t="s">
         <v>97</v>
       </c>
@@ -3565,23 +3502,23 @@
         <v>98</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K6" s="70">
         <v>3</v>
@@ -3589,31 +3526,31 @@
       <c r="L6" s="70"/>
       <c r="M6" s="70"/>
       <c r="N6" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O6" s="66"/>
       <c r="P6" s="67"/>
       <c r="Q6" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R6" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S6" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T6" s="73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U6" s="73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V6" s="69"/>
       <c r="W6" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X6" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y6" s="70">
         <v>3</v>
@@ -3623,7 +3560,7 @@
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
     </row>
-    <row r="7" spans="1:29" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="15" customFormat="1" ht="11.25" customHeight="1">
       <c r="B7" s="70" t="s">
         <v>97</v>
       </c>
@@ -3631,10 +3568,10 @@
         <v>98</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>79</v>
@@ -3644,10 +3581,10 @@
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K7" s="70">
         <v>10</v>
@@ -3655,18 +3592,18 @@
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
       <c r="N7" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O7" s="66"/>
       <c r="P7" s="67"/>
       <c r="Q7" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R7" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S7" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T7" s="73" t="s">
         <v>79</v>
@@ -3676,10 +3613,10 @@
       </c>
       <c r="V7" s="69"/>
       <c r="W7" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X7" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y7" s="70">
         <v>10</v>
@@ -3689,7 +3626,7 @@
       <c r="AB7" s="70"/>
       <c r="AC7" s="70"/>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A8" s="15"/>
       <c r="B8" s="70" t="s">
         <v>97</v>
@@ -3698,10 +3635,10 @@
         <v>98</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>80</v>
@@ -3711,10 +3648,10 @@
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K8" s="70">
         <v>10</v>
@@ -3722,18 +3659,18 @@
       <c r="L8" s="70"/>
       <c r="M8" s="70"/>
       <c r="N8" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="66"/>
       <c r="P8" s="67"/>
       <c r="Q8" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R8" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S8" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T8" s="73" t="s">
         <v>80</v>
@@ -3743,10 +3680,10 @@
       </c>
       <c r="V8" s="69"/>
       <c r="W8" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X8" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y8" s="70">
         <v>10</v>
@@ -3756,7 +3693,7 @@
       <c r="AB8" s="70"/>
       <c r="AC8" s="70"/>
     </row>
-    <row r="9" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A9" s="15"/>
       <c r="B9" s="70" t="s">
         <v>97</v>
@@ -3765,23 +3702,23 @@
         <v>98</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K9" s="72">
         <v>2</v>
@@ -3791,18 +3728,18 @@
       </c>
       <c r="M9" s="70"/>
       <c r="N9" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" s="66"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R9" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S9" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T9" s="73" t="s">
         <v>81</v>
@@ -3812,10 +3749,10 @@
       </c>
       <c r="V9" s="69"/>
       <c r="W9" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X9" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y9" s="72">
         <v>2</v>
@@ -3827,7 +3764,7 @@
       <c r="AB9" s="72"/>
       <c r="AC9" s="72"/>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A10" s="15"/>
       <c r="B10" s="70" t="s">
         <v>97</v>
@@ -3836,23 +3773,23 @@
         <v>98</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J10" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K10" s="70">
         <v>10</v>
@@ -3860,31 +3797,31 @@
       <c r="L10" s="72"/>
       <c r="M10" s="70"/>
       <c r="N10" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O10" s="66"/>
       <c r="P10" s="67"/>
       <c r="Q10" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R10" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S10" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T10" s="73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U10" s="73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V10" s="69"/>
       <c r="W10" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X10" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y10" s="70">
         <v>10</v>
@@ -3894,7 +3831,7 @@
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="12">
       <c r="A11" s="15"/>
       <c r="B11" s="70" t="s">
         <v>97</v>
@@ -3903,23 +3840,23 @@
         <v>98</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J11" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K11" s="70">
         <v>10</v>
@@ -3927,31 +3864,31 @@
       <c r="L11" s="72"/>
       <c r="M11" s="70"/>
       <c r="N11" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O11" s="66"/>
       <c r="P11" s="67"/>
       <c r="Q11" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R11" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S11" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T11" s="73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U11" s="73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V11" s="69"/>
       <c r="W11" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X11" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y11" s="70">
         <v>10</v>
@@ -3961,7 +3898,7 @@
       <c r="AB11" s="72"/>
       <c r="AC11" s="72"/>
     </row>
-    <row r="12" spans="1:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" s="10" customFormat="1" ht="12">
       <c r="B12" s="70" t="s">
         <v>97</v>
       </c>
@@ -3969,23 +3906,23 @@
         <v>98</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J12" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K12" s="70">
         <v>5</v>
@@ -3993,31 +3930,31 @@
       <c r="L12" s="72"/>
       <c r="M12" s="70"/>
       <c r="N12" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O12" s="66"/>
       <c r="P12" s="67"/>
       <c r="Q12" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R12" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S12" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T12" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U12" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V12" s="69"/>
       <c r="W12" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X12" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y12" s="70">
         <v>5</v>
@@ -4027,7 +3964,7 @@
       <c r="AB12" s="72"/>
       <c r="AC12" s="72"/>
     </row>
-    <row r="13" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="15" customFormat="1" ht="12">
       <c r="B13" s="70" t="s">
         <v>97</v>
       </c>
@@ -4035,23 +3972,23 @@
         <v>98</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J13" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K13" s="70">
         <v>5</v>
@@ -4059,31 +3996,31 @@
       <c r="L13" s="72"/>
       <c r="M13" s="70"/>
       <c r="N13" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" s="66"/>
       <c r="P13" s="67"/>
       <c r="Q13" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R13" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S13" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T13" s="73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U13" s="73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V13" s="69"/>
       <c r="W13" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X13" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y13" s="70">
         <v>5</v>
@@ -4093,7 +4030,7 @@
       <c r="AB13" s="72"/>
       <c r="AC13" s="72"/>
     </row>
-    <row r="14" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="15" customFormat="1" ht="12">
       <c r="B14" s="70" t="s">
         <v>97</v>
       </c>
@@ -4101,23 +4038,23 @@
         <v>98</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K14" s="72">
         <v>1</v>
@@ -4125,31 +4062,31 @@
       <c r="L14" s="72"/>
       <c r="M14" s="70"/>
       <c r="N14" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O14" s="66"/>
       <c r="P14" s="67"/>
       <c r="Q14" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R14" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S14" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T14" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U14" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V14" s="69"/>
       <c r="W14" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X14" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y14" s="72">
         <v>1</v>
@@ -4159,7 +4096,7 @@
       <c r="AB14" s="72"/>
       <c r="AC14" s="72"/>
     </row>
-    <row r="15" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="15" customFormat="1" ht="12">
       <c r="B15" s="70" t="s">
         <v>97</v>
       </c>
@@ -4167,10 +4104,10 @@
         <v>98</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F15" s="73" t="s">
         <v>82</v>
@@ -4180,10 +4117,10 @@
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K15" s="72">
         <v>4</v>
@@ -4193,18 +4130,18 @@
       </c>
       <c r="M15" s="70"/>
       <c r="N15" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O15" s="66"/>
       <c r="P15" s="67"/>
       <c r="Q15" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R15" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S15" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T15" s="73" t="s">
         <v>82</v>
@@ -4214,10 +4151,10 @@
       </c>
       <c r="V15" s="69"/>
       <c r="W15" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X15" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y15" s="72">
         <v>4</v>
@@ -4229,7 +4166,7 @@
       <c r="AB15" s="72"/>
       <c r="AC15" s="72"/>
     </row>
-    <row r="16" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="65"/>
       <c r="B16" s="70" t="s">
         <v>97</v>
@@ -4238,10 +4175,10 @@
         <v>98</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>83</v>
@@ -4251,10 +4188,10 @@
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K16" s="72">
         <v>1</v>
@@ -4262,18 +4199,18 @@
       <c r="L16" s="70"/>
       <c r="M16" s="70"/>
       <c r="N16" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O16" s="66"/>
       <c r="P16" s="67"/>
       <c r="Q16" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R16" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S16" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T16" s="73" t="s">
         <v>83</v>
@@ -4283,10 +4220,10 @@
       </c>
       <c r="V16" s="70"/>
       <c r="W16" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X16" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y16" s="72">
         <v>1</v>
@@ -4296,7 +4233,7 @@
       <c r="AB16" s="70"/>
       <c r="AC16" s="70"/>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="65"/>
       <c r="B17" s="70" t="s">
         <v>97</v>
@@ -4305,10 +4242,10 @@
         <v>98</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" s="73" t="s">
         <v>84</v>
@@ -4318,27 +4255,27 @@
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17" s="70"/>
       <c r="L17" s="70"/>
       <c r="M17" s="70"/>
       <c r="N17" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O17" s="66"/>
       <c r="P17" s="67"/>
       <c r="Q17" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R17" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S17" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T17" s="73" t="s">
         <v>84</v>
@@ -4348,10 +4285,10 @@
       </c>
       <c r="V17" s="70"/>
       <c r="W17" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X17" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y17" s="70">
         <v>4</v>
@@ -4363,7 +4300,7 @@
       <c r="AB17" s="70"/>
       <c r="AC17" s="70"/>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="65"/>
       <c r="B18" s="70" t="s">
         <v>97</v>
@@ -4372,53 +4309,53 @@
         <v>98</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18" s="70"/>
       <c r="L18" s="70"/>
       <c r="M18" s="70"/>
       <c r="N18" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O18" s="66"/>
       <c r="P18" s="67"/>
       <c r="Q18" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R18" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S18" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T18" s="73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U18" s="73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V18" s="70"/>
       <c r="W18" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X18" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y18" s="70"/>
       <c r="Z18" s="70"/>
@@ -4426,7 +4363,7 @@
       <c r="AB18" s="70"/>
       <c r="AC18" s="70"/>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" s="3" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="70" t="s">
         <v>97</v>
@@ -4435,10 +4372,10 @@
         <v>98</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="73" t="s">
         <v>85</v>
@@ -4448,10 +4385,10 @@
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J19" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19" s="70">
         <v>11</v>
@@ -4459,18 +4396,18 @@
       <c r="L19" s="70"/>
       <c r="M19" s="70"/>
       <c r="N19" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O19" s="66"/>
       <c r="P19" s="67"/>
       <c r="Q19" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R19" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S19" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T19" s="73" t="s">
         <v>85</v>
@@ -4480,10 +4417,10 @@
       </c>
       <c r="V19" s="70"/>
       <c r="W19" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X19" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y19" s="70">
         <v>11</v>
@@ -4493,7 +4430,7 @@
       <c r="AB19" s="70"/>
       <c r="AC19" s="70"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29">
       <c r="A20" s="60"/>
       <c r="B20" s="70" t="s">
         <v>97</v>
@@ -4502,23 +4439,23 @@
         <v>98</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K20" s="70">
         <v>6</v>
@@ -4528,31 +4465,31 @@
       </c>
       <c r="M20" s="70"/>
       <c r="N20" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O20" s="66"/>
       <c r="P20" s="67"/>
       <c r="Q20" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R20" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S20" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T20" s="73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U20" s="73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V20" s="70"/>
       <c r="W20" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X20" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y20" s="70">
         <v>6</v>
@@ -4564,7 +4501,7 @@
       <c r="AB20" s="70"/>
       <c r="AC20" s="70"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29">
       <c r="A21" s="60"/>
       <c r="B21" s="70" t="s">
         <v>97</v>
@@ -4573,53 +4510,53 @@
         <v>98</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K21" s="70"/>
       <c r="L21" s="70"/>
       <c r="M21" s="70"/>
       <c r="N21" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O21" s="66"/>
       <c r="P21" s="67"/>
       <c r="Q21" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R21" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S21" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T21" s="73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U21" s="73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V21" s="70"/>
       <c r="W21" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X21" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y21" s="70"/>
       <c r="Z21" s="70"/>
@@ -4627,7 +4564,7 @@
       <c r="AB21" s="70"/>
       <c r="AC21" s="70"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29">
       <c r="A22" s="60"/>
       <c r="B22" s="70" t="s">
         <v>97</v>
@@ -4636,23 +4573,23 @@
         <v>98</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G22" s="73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K22" s="72">
         <v>12</v>
@@ -4662,31 +4599,31 @@
       </c>
       <c r="M22" s="70"/>
       <c r="N22" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O22" s="79"/>
       <c r="P22" s="76"/>
       <c r="Q22" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R22" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S22" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T22" s="73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U22" s="73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="V22" s="70"/>
       <c r="W22" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X22" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y22" s="72">
         <v>12</v>
@@ -4698,7 +4635,7 @@
       <c r="AB22" s="70"/>
       <c r="AC22" s="70"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29">
       <c r="A23" s="60"/>
       <c r="B23" s="70" t="s">
         <v>97</v>
@@ -4707,10 +4644,10 @@
         <v>98</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="73" t="s">
         <v>86</v>
@@ -4720,10 +4657,10 @@
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K23" s="70">
         <v>1</v>
@@ -4731,18 +4668,18 @@
       <c r="L23" s="70"/>
       <c r="M23" s="70"/>
       <c r="N23" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O23" s="66"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R23" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S23" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T23" s="73" t="s">
         <v>86</v>
@@ -4752,10 +4689,10 @@
       </c>
       <c r="V23" s="70"/>
       <c r="W23" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X23" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y23" s="70">
         <v>1</v>
@@ -4765,7 +4702,7 @@
       <c r="AB23" s="70"/>
       <c r="AC23" s="70"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29">
       <c r="A24" s="60"/>
       <c r="B24" s="70" t="s">
         <v>97</v>
@@ -4774,10 +4711,10 @@
         <v>98</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" s="73" t="s">
         <v>87</v>
@@ -4787,10 +4724,10 @@
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J24" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K24" s="72">
         <v>8</v>
@@ -4800,18 +4737,18 @@
       </c>
       <c r="M24" s="70"/>
       <c r="N24" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O24" s="66"/>
       <c r="P24" s="67"/>
       <c r="Q24" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R24" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S24" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T24" s="73" t="s">
         <v>87</v>
@@ -4821,10 +4758,10 @@
       </c>
       <c r="V24" s="70"/>
       <c r="W24" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X24" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y24" s="72">
         <v>8</v>
@@ -4836,7 +4773,7 @@
       <c r="AB24" s="70"/>
       <c r="AC24" s="70"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29">
       <c r="A25" s="60"/>
       <c r="B25" s="70" t="s">
         <v>97</v>
@@ -4845,10 +4782,10 @@
         <v>98</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" s="73" t="s">
         <v>88</v>
@@ -4858,10 +4795,10 @@
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J25" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K25" s="70">
         <v>5</v>
@@ -4869,18 +4806,18 @@
       <c r="L25" s="70"/>
       <c r="M25" s="70"/>
       <c r="N25" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O25" s="66"/>
       <c r="P25" s="67"/>
       <c r="Q25" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R25" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S25" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T25" s="73" t="s">
         <v>88</v>
@@ -4890,10 +4827,10 @@
       </c>
       <c r="V25" s="70"/>
       <c r="W25" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X25" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y25" s="70">
         <v>5</v>
@@ -4903,7 +4840,7 @@
       <c r="AB25" s="70"/>
       <c r="AC25" s="70"/>
     </row>
-    <row r="26" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="12" customHeight="1">
       <c r="A26" s="60"/>
       <c r="B26" s="70" t="s">
         <v>97</v>
@@ -4912,10 +4849,10 @@
         <v>98</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="73" t="s">
         <v>89</v>
@@ -4925,10 +4862,10 @@
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="70">
         <v>10</v>
@@ -4936,18 +4873,18 @@
       <c r="L26" s="70"/>
       <c r="M26" s="70"/>
       <c r="N26" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O26" s="77"/>
       <c r="P26" s="78"/>
       <c r="Q26" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R26" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S26" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T26" s="73" t="s">
         <v>89</v>
@@ -4957,10 +4894,10 @@
       </c>
       <c r="V26" s="70"/>
       <c r="W26" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X26" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y26" s="70">
         <v>10</v>
@@ -4970,7 +4907,7 @@
       <c r="AB26" s="70"/>
       <c r="AC26" s="70"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="A27" s="60"/>
       <c r="B27" s="70" t="s">
         <v>97</v>
@@ -4979,10 +4916,10 @@
         <v>98</v>
       </c>
       <c r="D27" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27" s="73" t="s">
         <v>90</v>
@@ -4992,10 +4929,10 @@
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J27" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K27" s="70">
         <v>2</v>
@@ -5003,18 +4940,18 @@
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
       <c r="N27" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O27" s="66"/>
       <c r="P27" s="67"/>
       <c r="Q27" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R27" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S27" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T27" s="73" t="s">
         <v>90</v>
@@ -5024,10 +4961,10 @@
       </c>
       <c r="V27" s="70"/>
       <c r="W27" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X27" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y27" s="70">
         <v>2</v>
@@ -5037,7 +4974,7 @@
       <c r="AB27" s="70"/>
       <c r="AC27" s="70"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29">
       <c r="A28" s="60"/>
       <c r="B28" s="70" t="s">
         <v>97</v>
@@ -5046,23 +4983,23 @@
         <v>98</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H28" s="70"/>
       <c r="I28" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K28" s="70">
         <v>15</v>
@@ -5070,31 +5007,31 @@
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
       <c r="N28" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O28" s="66"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R28" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S28" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T28" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U28" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V28" s="70"/>
       <c r="W28" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X28" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y28" s="70">
         <v>15</v>
@@ -5104,7 +5041,7 @@
       <c r="AB28" s="70"/>
       <c r="AC28" s="70"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29">
       <c r="A29" s="60"/>
       <c r="B29" s="70" t="s">
         <v>97</v>
@@ -5113,23 +5050,23 @@
         <v>98</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29" s="73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G29" s="73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J29" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K29" s="70">
         <v>2</v>
@@ -5137,31 +5074,31 @@
       <c r="L29" s="70"/>
       <c r="M29" s="70"/>
       <c r="N29" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O29" s="66"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R29" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S29" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T29" s="73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U29" s="73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V29" s="70"/>
       <c r="W29" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X29" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y29" s="70">
         <v>2</v>
@@ -5171,7 +5108,7 @@
       <c r="AB29" s="70"/>
       <c r="AC29" s="70"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29">
       <c r="A30" s="60"/>
       <c r="B30" s="70" t="s">
         <v>97</v>
@@ -5180,10 +5117,10 @@
         <v>98</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="73" t="s">
         <v>91</v>
@@ -5193,10 +5130,10 @@
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K30" s="70">
         <v>5</v>
@@ -5204,18 +5141,18 @@
       <c r="L30" s="70"/>
       <c r="M30" s="70"/>
       <c r="N30" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="67"/>
       <c r="Q30" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R30" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S30" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T30" s="73" t="s">
         <v>91</v>
@@ -5225,10 +5162,10 @@
       </c>
       <c r="V30" s="70"/>
       <c r="W30" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X30" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y30" s="70">
         <v>5</v>
@@ -5238,7 +5175,7 @@
       <c r="AB30" s="70"/>
       <c r="AC30" s="70"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29">
       <c r="A31" s="60"/>
       <c r="B31" s="70" t="s">
         <v>97</v>
@@ -5247,10 +5184,10 @@
         <v>98</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" s="73" t="s">
         <v>92</v>
@@ -5260,10 +5197,10 @@
       </c>
       <c r="H31" s="70"/>
       <c r="I31" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K31" s="72">
         <v>11</v>
@@ -5273,18 +5210,18 @@
       </c>
       <c r="M31" s="70"/>
       <c r="N31" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="66"/>
       <c r="P31" s="67"/>
       <c r="Q31" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R31" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S31" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T31" s="73" t="s">
         <v>92</v>
@@ -5294,10 +5231,10 @@
       </c>
       <c r="V31" s="70"/>
       <c r="W31" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X31" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y31" s="72">
         <v>11</v>
@@ -5309,7 +5246,7 @@
       <c r="AB31" s="70"/>
       <c r="AC31" s="70"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29">
       <c r="A32" s="60"/>
       <c r="B32" s="70" t="s">
         <v>97</v>
@@ -5318,23 +5255,23 @@
         <v>98</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" s="73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G32" s="73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H32" s="70"/>
       <c r="I32" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K32" s="70">
         <v>1</v>
@@ -5342,31 +5279,31 @@
       <c r="L32" s="70"/>
       <c r="M32" s="70"/>
       <c r="N32" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="66"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R32" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S32" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T32" s="73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U32" s="73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V32" s="70"/>
       <c r="W32" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X32" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y32" s="70">
         <v>1</v>
@@ -5376,7 +5313,7 @@
       <c r="AB32" s="70"/>
       <c r="AC32" s="70"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29">
       <c r="A33" s="60"/>
       <c r="B33" s="70" t="s">
         <v>97</v>
@@ -5385,53 +5322,53 @@
         <v>98</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" s="73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" s="73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70"/>
       <c r="N33" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="66"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R33" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S33" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T33" s="73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U33" s="73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V33" s="70"/>
       <c r="W33" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X33" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y33" s="70"/>
       <c r="Z33" s="70"/>
@@ -5439,7 +5376,7 @@
       <c r="AB33" s="70"/>
       <c r="AC33" s="70"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29">
       <c r="A34" s="60"/>
       <c r="B34" s="70" t="s">
         <v>97</v>
@@ -5448,53 +5385,53 @@
         <v>98</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G34" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H34" s="70"/>
       <c r="I34" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J34" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70"/>
       <c r="N34" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="66"/>
       <c r="P34" s="67"/>
       <c r="Q34" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R34" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S34" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T34" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U34" s="73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V34" s="70"/>
       <c r="W34" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X34" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y34" s="70"/>
       <c r="Z34" s="70"/>
@@ -5502,7 +5439,7 @@
       <c r="AB34" s="70"/>
       <c r="AC34" s="70"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29">
       <c r="A35" s="60"/>
       <c r="B35" s="70" t="s">
         <v>97</v>
@@ -5511,53 +5448,53 @@
         <v>98</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35" s="73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G35" s="73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H35" s="70"/>
       <c r="I35" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J35" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
       <c r="M35" s="70"/>
       <c r="N35" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O35" s="66"/>
       <c r="P35" s="67"/>
       <c r="Q35" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R35" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S35" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T35" s="73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U35" s="73" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V35" s="70"/>
       <c r="W35" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X35" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y35" s="70"/>
       <c r="Z35" s="70"/>
@@ -5565,7 +5502,7 @@
       <c r="AB35" s="70"/>
       <c r="AC35" s="70"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29">
       <c r="A36" s="60"/>
       <c r="B36" s="70" t="s">
         <v>97</v>
@@ -5574,23 +5511,23 @@
         <v>98</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" s="73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G36" s="73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J36" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K36" s="72">
         <v>5</v>
@@ -5598,33 +5535,33 @@
       <c r="L36" s="72">
         <v>2</v>
       </c>
-      <c r="M36" s="92"/>
+      <c r="M36" s="93"/>
       <c r="N36" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O36" s="66"/>
       <c r="P36" s="67"/>
       <c r="Q36" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R36" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S36" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T36" s="70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U36" s="70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V36" s="70"/>
       <c r="W36" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X36" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y36" s="72">
         <v>5</v>
@@ -5636,7 +5573,7 @@
       <c r="AB36" s="70"/>
       <c r="AC36" s="70"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29">
       <c r="A37" s="60"/>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -5648,10 +5585,10 @@
       </c>
       <c r="H37" s="70"/>
       <c r="I37" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J37" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K37" s="70">
         <v>100</v>
@@ -5659,18 +5596,18 @@
       <c r="L37" s="70"/>
       <c r="M37" s="70"/>
       <c r="N37" s="70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O37" s="66"/>
       <c r="P37" s="67"/>
       <c r="Q37" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R37" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S37" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T37" s="70" t="s">
         <v>95</v>
@@ -5680,10 +5617,10 @@
       </c>
       <c r="V37" s="70"/>
       <c r="W37" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X37" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y37" s="70">
         <v>100</v>
@@ -5693,7 +5630,7 @@
       <c r="AB37" s="70"/>
       <c r="AC37" s="70"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29">
       <c r="A38" s="60"/>
       <c r="B38" s="70" t="s">
         <v>97</v>
@@ -5702,10 +5639,10 @@
         <v>98</v>
       </c>
       <c r="D38" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F38" s="73" t="s">
         <v>93</v>
@@ -5715,10 +5652,10 @@
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J38" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K38" s="70">
         <v>6</v>
@@ -5728,18 +5665,18 @@
       </c>
       <c r="M38" s="70"/>
       <c r="N38" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O38" s="66"/>
       <c r="P38" s="67"/>
       <c r="Q38" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R38" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S38" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T38" s="73" t="s">
         <v>93</v>
@@ -5749,10 +5686,10 @@
       </c>
       <c r="V38" s="70"/>
       <c r="W38" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X38" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y38" s="70">
         <v>6</v>
@@ -5764,7 +5701,7 @@
       <c r="AB38" s="70"/>
       <c r="AC38" s="70"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29">
       <c r="A39" s="60"/>
       <c r="B39" s="70" t="s">
         <v>97</v>
@@ -5773,23 +5710,23 @@
         <v>98</v>
       </c>
       <c r="D39" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F39" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G39" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H39" s="70"/>
       <c r="I39" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J39" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K39" s="70">
         <v>1</v>
@@ -5797,31 +5734,31 @@
       <c r="L39" s="70"/>
       <c r="M39" s="70"/>
       <c r="N39" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O39" s="89"/>
       <c r="P39" s="89"/>
-      <c r="Q39" s="68" t="s">
-        <v>160</v>
+      <c r="Q39" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="R39" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S39" s="68" t="s">
-        <v>160</v>
+      <c r="S39" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="T39" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U39" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V39" s="70"/>
       <c r="W39" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X39" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y39" s="70">
         <v>1</v>
@@ -5831,7 +5768,7 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="70"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29">
       <c r="A40" s="60"/>
       <c r="B40" s="70" t="s">
         <v>97</v>
@@ -5840,23 +5777,23 @@
         <v>98</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" s="73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G40" s="73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H40" s="70"/>
       <c r="I40" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J40" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K40" s="70">
         <v>40</v>
@@ -5864,31 +5801,31 @@
       <c r="L40" s="70"/>
       <c r="M40" s="70"/>
       <c r="N40" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O40" s="89"/>
       <c r="P40" s="89"/>
-      <c r="Q40" s="68" t="s">
-        <v>160</v>
+      <c r="Q40" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="R40" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S40" s="68" t="s">
-        <v>160</v>
+      <c r="S40" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="T40" s="73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U40" s="73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V40" s="70"/>
       <c r="W40" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X40" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y40" s="70">
         <v>40</v>
@@ -5898,7 +5835,7 @@
       <c r="AB40" s="70"/>
       <c r="AC40" s="70"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29">
       <c r="A41" s="60"/>
       <c r="B41" s="70" t="s">
         <v>97</v>
@@ -5907,53 +5844,53 @@
         <v>98</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F41" s="73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41" s="73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J41" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K41" s="70"/>
       <c r="L41" s="70"/>
       <c r="M41" s="70"/>
       <c r="N41" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O41" s="88"/>
       <c r="P41" s="88"/>
-      <c r="Q41" s="68" t="s">
-        <v>160</v>
+      <c r="Q41" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="R41" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S41" s="68" t="s">
-        <v>160</v>
+      <c r="S41" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="T41" s="73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U41" s="73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V41" s="70"/>
       <c r="W41" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X41" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y41" s="70"/>
       <c r="Z41" s="70"/>
@@ -5961,7 +5898,7 @@
       <c r="AB41" s="70"/>
       <c r="AC41" s="70"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29">
       <c r="A42" s="60"/>
       <c r="B42" s="70" t="s">
         <v>97</v>
@@ -5970,53 +5907,53 @@
         <v>98</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F42" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G42" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J42" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K42" s="70"/>
       <c r="L42" s="70"/>
       <c r="M42" s="70"/>
       <c r="N42" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="68" t="s">
-        <v>160</v>
+      <c r="Q42" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="R42" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S42" s="68" t="s">
-        <v>160</v>
+      <c r="S42" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="T42" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U42" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V42" s="70"/>
       <c r="W42" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X42" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y42" s="70"/>
       <c r="Z42" s="70"/>
@@ -6024,7 +5961,7 @@
       <c r="AB42" s="70"/>
       <c r="AC42" s="70"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29">
       <c r="A43" s="60"/>
       <c r="B43" s="70" t="s">
         <v>97</v>
@@ -6033,23 +5970,23 @@
         <v>98</v>
       </c>
       <c r="D43" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E43" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F43" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G43" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H43" s="70"/>
       <c r="I43" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J43" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K43" s="70">
         <v>1</v>
@@ -6057,31 +5994,31 @@
       <c r="L43" s="70"/>
       <c r="M43" s="70"/>
       <c r="N43" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O43" s="75"/>
       <c r="P43" s="75"/>
-      <c r="Q43" s="68" t="s">
-        <v>160</v>
+      <c r="Q43" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="R43" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S43" s="68" t="s">
-        <v>160</v>
+      <c r="S43" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="T43" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U43" s="73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V43" s="70"/>
       <c r="W43" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X43" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y43" s="70">
         <v>1</v>
@@ -6091,7 +6028,7 @@
       <c r="AB43" s="70"/>
       <c r="AC43" s="70"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29">
       <c r="A44" s="60"/>
       <c r="B44" s="70" t="s">
         <v>97</v>
@@ -6100,23 +6037,23 @@
         <v>98</v>
       </c>
       <c r="D44" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F44" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G44" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H44" s="70"/>
       <c r="I44" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J44" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K44" s="70">
         <v>3</v>
@@ -6126,31 +6063,31 @@
       </c>
       <c r="M44" s="70"/>
       <c r="N44" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O44" s="80"/>
       <c r="P44" s="80"/>
-      <c r="Q44" s="68" t="s">
-        <v>160</v>
+      <c r="Q44" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="R44" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="S44" s="68" t="s">
-        <v>160</v>
+      <c r="S44" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="T44" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U44" s="73" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V44" s="70"/>
       <c r="W44" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X44" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y44" s="70">
         <v>3</v>
@@ -6162,7 +6099,7 @@
       <c r="AB44" s="70"/>
       <c r="AC44" s="70"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29">
       <c r="A45" s="60"/>
       <c r="B45" s="70" t="s">
         <v>97</v>
@@ -6171,53 +6108,53 @@
         <v>98</v>
       </c>
       <c r="D45" s="71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F45" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G45" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H45" s="70"/>
       <c r="I45" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J45" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K45" s="70"/>
       <c r="L45" s="70"/>
-      <c r="M45" s="93"/>
+      <c r="M45" s="94"/>
       <c r="N45" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O45" s="66"/>
       <c r="P45" s="67"/>
       <c r="Q45" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R45" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S45" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T45" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U45" s="73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V45" s="70"/>
       <c r="W45" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X45" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y45" s="70"/>
       <c r="Z45" s="70"/>
@@ -6225,7 +6162,7 @@
       <c r="AB45" s="70"/>
       <c r="AC45" s="70"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29">
       <c r="A46" s="60"/>
       <c r="B46" s="70" t="s">
         <v>97</v>
@@ -6234,53 +6171,53 @@
         <v>98</v>
       </c>
       <c r="D46" s="71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F46" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G46" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J46" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K46" s="70"/>
       <c r="L46" s="70"/>
-      <c r="M46" s="92"/>
+      <c r="M46" s="93"/>
       <c r="N46" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O46" s="82"/>
       <c r="P46" s="83"/>
       <c r="Q46" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R46" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S46" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T46" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U46" s="73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V46" s="70"/>
       <c r="W46" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X46" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y46" s="70"/>
       <c r="Z46" s="70"/>
@@ -6288,7 +6225,7 @@
       <c r="AB46" s="70"/>
       <c r="AC46" s="70"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29">
       <c r="A47" s="60"/>
       <c r="B47" s="70" t="s">
         <v>97</v>
@@ -6297,23 +6234,23 @@
         <v>98</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F47" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G47" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H47" s="70"/>
       <c r="I47" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J47" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K47" s="70">
         <v>1</v>
@@ -6321,31 +6258,31 @@
       <c r="L47" s="70"/>
       <c r="M47" s="70"/>
       <c r="N47" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O47" s="82"/>
       <c r="P47" s="83"/>
       <c r="Q47" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R47" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S47" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T47" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U47" s="73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V47" s="70"/>
       <c r="W47" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X47" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y47" s="70">
         <v>1</v>
@@ -6355,7 +6292,7 @@
       <c r="AB47" s="70"/>
       <c r="AC47" s="70"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29">
       <c r="A48" s="60"/>
       <c r="B48" s="70" t="s">
         <v>97</v>
@@ -6364,23 +6301,23 @@
         <v>98</v>
       </c>
       <c r="D48" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G48" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H48" s="70"/>
       <c r="I48" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J48" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K48" s="70">
         <v>1</v>
@@ -6388,31 +6325,31 @@
       <c r="L48" s="70"/>
       <c r="M48" s="70"/>
       <c r="N48" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O48" s="82"/>
       <c r="P48" s="83"/>
       <c r="Q48" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R48" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S48" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T48" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U48" s="73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V48" s="70"/>
       <c r="W48" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X48" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y48" s="70">
         <v>1</v>
@@ -6422,7 +6359,7 @@
       <c r="AB48" s="70"/>
       <c r="AC48" s="70"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29">
       <c r="A49" s="60"/>
       <c r="B49" s="70" t="s">
         <v>97</v>
@@ -6431,10 +6368,10 @@
         <v>98</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F49" s="73" t="s">
         <v>94</v>
@@ -6444,10 +6381,10 @@
       </c>
       <c r="H49" s="70"/>
       <c r="I49" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J49" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K49" s="70">
         <v>1</v>
@@ -6455,18 +6392,18 @@
       <c r="L49" s="70"/>
       <c r="M49" s="70"/>
       <c r="N49" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O49" s="82"/>
       <c r="P49" s="83"/>
       <c r="Q49" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R49" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S49" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T49" s="73" t="s">
         <v>94</v>
@@ -6476,10 +6413,10 @@
       </c>
       <c r="V49" s="70"/>
       <c r="W49" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X49" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y49" s="70">
         <v>1</v>
@@ -6489,7 +6426,7 @@
       <c r="AB49" s="70"/>
       <c r="AC49" s="70"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29">
       <c r="A50" s="60"/>
       <c r="B50" s="70" t="s">
         <v>97</v>
@@ -6498,23 +6435,23 @@
         <v>98</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E50" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F50" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G50" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H50" s="70"/>
       <c r="I50" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J50" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K50" s="70">
         <v>4</v>
@@ -6524,31 +6461,31 @@
       </c>
       <c r="M50" s="70"/>
       <c r="N50" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O50" s="82"/>
       <c r="P50" s="83"/>
       <c r="Q50" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R50" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S50" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T50" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U50" s="73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V50" s="70"/>
       <c r="W50" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X50" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y50" s="70">
         <v>4</v>
@@ -6560,7 +6497,7 @@
       <c r="AB50" s="70"/>
       <c r="AC50" s="70"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29">
       <c r="A51" s="60"/>
       <c r="B51" s="70" t="s">
         <v>97</v>
@@ -6569,23 +6506,23 @@
         <v>98</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E51" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F51" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G51" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H51" s="70"/>
       <c r="I51" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J51" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K51" s="70">
         <v>6</v>
@@ -6595,31 +6532,31 @@
       </c>
       <c r="M51" s="70"/>
       <c r="N51" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O51" s="82"/>
       <c r="P51" s="83"/>
       <c r="Q51" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R51" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S51" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T51" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U51" s="73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V51" s="70"/>
       <c r="W51" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X51" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y51" s="70">
         <v>6</v>
@@ -6631,7 +6568,7 @@
       <c r="AB51" s="70"/>
       <c r="AC51" s="70"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29">
       <c r="A52" s="60"/>
       <c r="B52" s="70" t="s">
         <v>97</v>
@@ -6640,53 +6577,53 @@
         <v>98</v>
       </c>
       <c r="D52" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="69" t="s">
+      <c r="G52" s="73" t="s">
         <v>132</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="G52" s="73" t="s">
-        <v>131</v>
       </c>
       <c r="H52" s="70"/>
       <c r="I52" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J52" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K52" s="70"/>
       <c r="L52" s="70"/>
       <c r="M52" s="70"/>
       <c r="N52" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O52" s="82"/>
       <c r="P52" s="83"/>
       <c r="Q52" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="R52" s="70" t="s">
         <v>98</v>
       </c>
       <c r="S52" s="68" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="T52" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U52" s="73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V52" s="70"/>
       <c r="W52" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X52" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y52" s="70"/>
       <c r="Z52" s="70"/>
@@ -6694,24 +6631,24 @@
       <c r="AB52" s="70"/>
       <c r="AC52" s="70"/>
     </row>
-    <row r="53" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="48">
       <c r="A53" s="60"/>
       <c r="B53" s="85"/>
       <c r="C53" s="85"/>
       <c r="D53" s="86"/>
       <c r="E53" s="87"/>
       <c r="F53" s="73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G53" s="73" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H53" s="70"/>
       <c r="I53" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J53" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K53" s="70">
         <v>1</v>
@@ -6719,31 +6656,31 @@
       <c r="L53" s="70"/>
       <c r="M53" s="70"/>
       <c r="N53" s="74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O53" s="82"/>
       <c r="P53" s="83"/>
-      <c r="Q53" s="68" t="s">
-        <v>160</v>
+      <c r="Q53" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="R53" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S53" s="68" t="s">
-        <v>160</v>
+      <c r="S53" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="T53" s="75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U53" s="75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V53" s="70"/>
       <c r="W53" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X53" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y53" s="70">
         <v>1</v>
@@ -6753,7 +6690,7 @@
       <c r="AB53" s="70"/>
       <c r="AC53" s="70"/>
     </row>
-    <row r="54" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="48">
       <c r="A54" s="60"/>
       <c r="B54" s="85"/>
       <c r="C54" s="85"/>
@@ -6767,10 +6704,10 @@
       </c>
       <c r="H54" s="70"/>
       <c r="I54" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J54" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K54" s="70">
         <v>30</v>
@@ -6778,18 +6715,18 @@
       <c r="L54" s="70"/>
       <c r="M54" s="70"/>
       <c r="N54" s="84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O54" s="82"/>
       <c r="P54" s="83"/>
-      <c r="Q54" s="68" t="s">
-        <v>160</v>
+      <c r="Q54" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="R54" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S54" s="68" t="s">
-        <v>160</v>
+      <c r="S54" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="T54" s="75" t="s">
         <v>96</v>
@@ -6799,10 +6736,10 @@
       </c>
       <c r="V54" s="70"/>
       <c r="W54" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X54" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y54" s="70">
         <v>30</v>
@@ -6812,23 +6749,23 @@
       <c r="AB54" s="70"/>
       <c r="AC54" s="70"/>
     </row>
-    <row r="55" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="48">
       <c r="B55" s="85"/>
       <c r="C55" s="85"/>
       <c r="D55" s="85"/>
       <c r="E55" s="87"/>
       <c r="F55" s="73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G55" s="73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H55" s="70"/>
       <c r="I55" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J55" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K55" s="70">
         <v>15</v>
@@ -6836,31 +6773,31 @@
       <c r="L55" s="70"/>
       <c r="M55" s="70"/>
       <c r="N55" s="84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O55" s="66"/>
       <c r="P55" s="67"/>
-      <c r="Q55" s="68" t="s">
-        <v>160</v>
+      <c r="Q55" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="R55" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S55" s="68" t="s">
-        <v>160</v>
+      <c r="S55" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="T55" s="75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U55" s="75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V55" s="70"/>
       <c r="W55" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X55" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y55" s="70">
         <v>15</v>
@@ -6870,7 +6807,7 @@
       <c r="AB55" s="70"/>
       <c r="AC55" s="70"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29">
       <c r="B56" s="70" t="s">
         <v>97</v>
       </c>
@@ -6878,23 +6815,23 @@
         <v>98</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F56" s="73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G56" s="73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H56" s="70"/>
       <c r="I56" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J56" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K56" s="72">
         <v>5</v>
@@ -6904,33 +6841,33 @@
       </c>
       <c r="M56" s="70"/>
       <c r="N56" s="70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O56" s="66"/>
       <c r="P56" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q56" s="68" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="Q56" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="R56" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S56" s="68" t="s">
-        <v>160</v>
+      <c r="S56" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="T56" s="73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U56" s="73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V56" s="70"/>
       <c r="W56" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X56" s="69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y56" s="72">
         <v>5</v>
@@ -6942,23 +6879,23 @@
       <c r="AB56" s="70"/>
       <c r="AC56" s="70"/>
     </row>
-    <row r="57" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="48">
       <c r="B57" s="85"/>
       <c r="C57" s="85"/>
       <c r="D57" s="85"/>
       <c r="E57" s="87"/>
       <c r="F57" s="73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G57" s="73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H57" s="70"/>
       <c r="I57" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J57" s="70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K57" s="70">
         <v>6</v>
@@ -6968,31 +6905,31 @@
       </c>
       <c r="M57" s="70"/>
       <c r="N57" s="84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O57" s="66"/>
       <c r="P57" s="67"/>
-      <c r="Q57" s="68" t="s">
-        <v>160</v>
+      <c r="Q57" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="R57" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S57" s="68" t="s">
-        <v>160</v>
+      <c r="S57" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="T57" s="75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U57" s="75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="V57" s="70"/>
       <c r="W57" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X57" s="70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y57" s="70">
         <v>6</v>
@@ -7004,7 +6941,7 @@
       <c r="AB57" s="70"/>
       <c r="AC57" s="70"/>
     </row>
-    <row r="58" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="42.75" customHeight="1">
       <c r="B58" s="70" t="s">
         <v>97</v>
       </c>
@@ -7012,65 +6949,65 @@
         <v>98</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E58" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F58" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G58" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H58" s="73"/>
       <c r="I58" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J58" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K58" s="70">
         <v>5</v>
       </c>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
-      <c r="N58" s="131" t="s">
+      <c r="N58" s="132" t="s">
+        <v>147</v>
+      </c>
+      <c r="O58" s="138"/>
+      <c r="P58" s="138"/>
+      <c r="Q58" s="147" t="s">
+        <v>99</v>
+      </c>
+      <c r="R58" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="S58" s="147" t="s">
+        <v>99</v>
+      </c>
+      <c r="T58" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="O58" s="137"/>
-      <c r="P58" s="137"/>
-      <c r="Q58" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="R58" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="S58" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="T58" s="134" t="s">
-        <v>145</v>
-      </c>
-      <c r="U58" s="134" t="s">
-        <v>145</v>
-      </c>
-      <c r="V58" s="131"/>
+      <c r="U58" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="V58" s="132"/>
       <c r="W58" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X58" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y58" s="70">
         <v>5</v>
       </c>
       <c r="Z58" s="70"/>
-      <c r="AA58" s="131"/>
-      <c r="AB58" s="131"/>
-      <c r="AC58" s="131"/>
-    </row>
-    <row r="59" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA58" s="132"/>
+      <c r="AB58" s="132"/>
+      <c r="AC58" s="132"/>
+    </row>
+    <row r="59" spans="1:29" ht="37.5" customHeight="1">
       <c r="B59" s="70" t="s">
         <v>97</v>
       </c>
@@ -7078,57 +7015,53 @@
         <v>98</v>
       </c>
       <c r="D59" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E59" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59" s="73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G59" s="73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H59" s="73"/>
       <c r="I59" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J59" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K59" s="70">
         <v>5</v>
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
-      <c r="N59" s="132"/>
-      <c r="O59" s="138"/>
-      <c r="P59" s="138"/>
-      <c r="Q59" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="R59" s="135"/>
-      <c r="S59" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="T59" s="135"/>
-      <c r="U59" s="135"/>
-      <c r="V59" s="132"/>
+      <c r="N59" s="133"/>
+      <c r="O59" s="139"/>
+      <c r="P59" s="139"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="136"/>
+      <c r="S59" s="148"/>
+      <c r="T59" s="136"/>
+      <c r="U59" s="136"/>
+      <c r="V59" s="133"/>
       <c r="W59" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X59" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y59" s="70">
         <v>5</v>
       </c>
       <c r="Z59" s="70"/>
-      <c r="AA59" s="132"/>
-      <c r="AB59" s="132"/>
-      <c r="AC59" s="132"/>
-    </row>
-    <row r="60" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA59" s="133"/>
+      <c r="AB59" s="133"/>
+      <c r="AC59" s="133"/>
+    </row>
+    <row r="60" spans="1:29" ht="37.5" customHeight="1">
       <c r="B60" s="70" t="s">
         <v>97</v>
       </c>
@@ -7136,73 +7069,69 @@
         <v>98</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E60" s="69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F60" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G60" s="73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H60" s="70"/>
       <c r="I60" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J60" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K60" s="70">
         <v>1</v>
       </c>
       <c r="L60" s="70"/>
       <c r="M60" s="70"/>
-      <c r="N60" s="133"/>
-      <c r="O60" s="139"/>
-      <c r="P60" s="139"/>
-      <c r="Q60" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="R60" s="136"/>
-      <c r="S60" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="T60" s="136"/>
-      <c r="U60" s="136"/>
-      <c r="V60" s="133"/>
+      <c r="N60" s="134"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="140"/>
+      <c r="Q60" s="149"/>
+      <c r="R60" s="137"/>
+      <c r="S60" s="149"/>
+      <c r="T60" s="137"/>
+      <c r="U60" s="137"/>
+      <c r="V60" s="134"/>
       <c r="W60" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X60" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y60" s="70">
         <v>1</v>
       </c>
       <c r="Z60" s="70"/>
-      <c r="AA60" s="133"/>
-      <c r="AB60" s="133"/>
-      <c r="AC60" s="133"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA60" s="134"/>
+      <c r="AB60" s="134"/>
+      <c r="AC60" s="134"/>
+    </row>
+    <row r="61" spans="1:29">
       <c r="B61" s="85"/>
       <c r="C61" s="85"/>
       <c r="D61" s="85"/>
       <c r="E61" s="87"/>
       <c r="F61" s="73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G61" s="73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H61" s="70"/>
       <c r="I61" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J61" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K61" s="70">
         <v>1</v>
@@ -7210,153 +7139,153 @@
       <c r="L61" s="70"/>
       <c r="M61" s="70"/>
       <c r="N61" s="70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O61" s="66"/>
       <c r="P61" s="67"/>
-      <c r="Q61" s="68" t="s">
-        <v>160</v>
+      <c r="Q61" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="R61" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S61" s="68" t="s">
-        <v>160</v>
+      <c r="S61" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="T61" s="71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U61" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="V61" s="91"/>
+        <v>158</v>
+      </c>
+      <c r="V61" s="92"/>
       <c r="W61" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X61" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y61" s="70">
         <v>1</v>
       </c>
       <c r="Z61" s="70"/>
-      <c r="AA61" s="91"/>
-      <c r="AB61" s="91"/>
+      <c r="AA61" s="92"/>
+      <c r="AB61" s="92"/>
       <c r="AC61" s="70"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29">
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
       <c r="D62" s="85"/>
       <c r="E62" s="87"/>
       <c r="F62" s="73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G62" s="73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H62" s="70"/>
       <c r="I62" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J62" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K62" s="70">
         <v>2</v>
       </c>
       <c r="L62" s="70"/>
       <c r="M62" s="70"/>
-      <c r="N62" s="94" t="s">
-        <v>159</v>
+      <c r="N62" s="95" t="s">
+        <v>160</v>
       </c>
       <c r="O62" s="66"/>
       <c r="P62" s="67"/>
-      <c r="Q62" s="68" t="s">
-        <v>160</v>
+      <c r="Q62" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="R62" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S62" s="68" t="s">
-        <v>160</v>
+      <c r="S62" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="T62" s="73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U62" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="V62" s="91"/>
+        <v>151</v>
+      </c>
+      <c r="V62" s="92"/>
       <c r="W62" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X62" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y62" s="70">
         <v>2</v>
       </c>
       <c r="Z62" s="70"/>
-      <c r="AA62" s="91"/>
-      <c r="AB62" s="91"/>
+      <c r="AA62" s="92"/>
+      <c r="AB62" s="92"/>
       <c r="AC62" s="70"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29">
       <c r="B63" s="85"/>
       <c r="C63" s="85"/>
       <c r="D63" s="85"/>
       <c r="E63" s="87"/>
       <c r="F63" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G63" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H63" s="70"/>
       <c r="I63" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J63" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K63" s="70"/>
       <c r="L63" s="70"/>
       <c r="M63" s="70"/>
       <c r="N63" s="70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O63" s="66"/>
       <c r="P63" s="67"/>
-      <c r="Q63" s="68" t="s">
-        <v>160</v>
+      <c r="Q63" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="R63" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="S63" s="68" t="s">
-        <v>160</v>
+      <c r="S63" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="T63" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U63" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="V63" s="91"/>
+        <v>149</v>
+      </c>
+      <c r="V63" s="92"/>
       <c r="W63" s="70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X63" s="70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y63" s="70"/>
       <c r="Z63" s="70"/>
-      <c r="AA63" s="91"/>
-      <c r="AB63" s="91"/>
+      <c r="AA63" s="92"/>
+      <c r="AB63" s="92"/>
       <c r="AC63" s="70"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29">
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
       <c r="D64" s="61"/>
@@ -7386,7 +7315,7 @@
       <c r="AB64" s="60"/>
       <c r="AC64" s="65"/>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:29">
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
       <c r="D65" s="61"/>
@@ -7416,7 +7345,7 @@
       <c r="AB65" s="60"/>
       <c r="AC65" s="65"/>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29">
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
       <c r="D66" s="61"/>
@@ -7446,7 +7375,7 @@
       <c r="AB66" s="60"/>
       <c r="AC66" s="65"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29">
       <c r="B67" s="60"/>
       <c r="C67" s="60"/>
       <c r="D67" s="61"/>
@@ -7476,7 +7405,7 @@
       <c r="AB67" s="60"/>
       <c r="AC67" s="65"/>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29">
       <c r="B68" s="60"/>
       <c r="C68" s="60"/>
       <c r="D68" s="61"/>
@@ -7506,7 +7435,7 @@
       <c r="AB68" s="60"/>
       <c r="AC68" s="65"/>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:29">
       <c r="B69" s="60"/>
       <c r="C69" s="60"/>
       <c r="D69" s="61"/>
@@ -7528,7 +7457,7 @@
       <c r="T69" s="64"/>
       <c r="U69" s="60"/>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:29">
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
       <c r="D70" s="61"/>
@@ -7550,7 +7479,7 @@
       <c r="T70" s="64"/>
       <c r="U70" s="60"/>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29">
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
       <c r="D71" s="61"/>
@@ -7572,7 +7501,7 @@
       <c r="T71" s="64"/>
       <c r="U71" s="60"/>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:29">
       <c r="B72" s="60"/>
       <c r="C72" s="60"/>
       <c r="D72" s="61"/>
@@ -7594,7 +7523,7 @@
       <c r="T72" s="64"/>
       <c r="U72" s="60"/>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29">
       <c r="B73" s="60"/>
       <c r="C73" s="60"/>
       <c r="D73" s="61"/>
@@ -7616,7 +7545,7 @@
       <c r="T73" s="64"/>
       <c r="U73" s="60"/>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:29">
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
       <c r="D74" s="61"/>
@@ -7638,7 +7567,7 @@
       <c r="T74" s="64"/>
       <c r="U74" s="60"/>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:29">
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
       <c r="D75" s="61"/>
@@ -7660,7 +7589,7 @@
       <c r="T75" s="64"/>
       <c r="U75" s="60"/>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:29">
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
       <c r="D76" s="61"/>
@@ -7682,7 +7611,7 @@
       <c r="T76" s="64"/>
       <c r="U76" s="60"/>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29">
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
       <c r="D77" s="61"/>
@@ -7704,7 +7633,7 @@
       <c r="T77" s="64"/>
       <c r="U77" s="60"/>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:29">
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
       <c r="D78" s="61"/>
@@ -7726,7 +7655,7 @@
       <c r="T78" s="64"/>
       <c r="U78" s="60"/>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:29">
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
       <c r="D79" s="61"/>
@@ -7748,7 +7677,7 @@
       <c r="T79" s="64"/>
       <c r="U79" s="60"/>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29">
       <c r="B80" s="60"/>
       <c r="C80" s="60"/>
       <c r="D80" s="61"/>
@@ -7770,7 +7699,7 @@
       <c r="T80" s="64"/>
       <c r="U80" s="60"/>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:21">
       <c r="B81" s="60"/>
       <c r="C81" s="60"/>
       <c r="D81" s="61"/>
@@ -7792,7 +7721,7 @@
       <c r="T81" s="64"/>
       <c r="U81" s="60"/>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:21">
       <c r="B82" s="60"/>
       <c r="C82" s="60"/>
       <c r="D82" s="61"/>
@@ -7814,7 +7743,7 @@
       <c r="T82" s="64"/>
       <c r="U82" s="60"/>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:21">
       <c r="B83" s="60"/>
       <c r="C83" s="60"/>
       <c r="D83" s="61"/>
@@ -7836,7 +7765,7 @@
       <c r="T83" s="64"/>
       <c r="U83" s="60"/>
     </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:21">
       <c r="B84" s="60"/>
       <c r="C84" s="60"/>
       <c r="D84" s="61"/>
@@ -7858,7 +7787,7 @@
       <c r="T84" s="64"/>
       <c r="U84" s="60"/>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:21">
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
       <c r="D85" s="61"/>
@@ -7880,7 +7809,7 @@
       <c r="T85" s="64"/>
       <c r="U85" s="60"/>
     </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:21">
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
       <c r="D86" s="61"/>
@@ -7902,7 +7831,7 @@
       <c r="T86" s="64"/>
       <c r="U86" s="60"/>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:21">
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
       <c r="D87" s="61"/>
@@ -7924,7 +7853,7 @@
       <c r="T87" s="64"/>
       <c r="U87" s="60"/>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:21">
       <c r="B88" s="60"/>
       <c r="C88" s="60"/>
       <c r="D88" s="61"/>
@@ -7946,7 +7875,7 @@
       <c r="T88" s="64"/>
       <c r="U88" s="60"/>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:21">
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
       <c r="D89" s="61"/>
@@ -7968,7 +7897,7 @@
       <c r="T89" s="64"/>
       <c r="U89" s="60"/>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:21">
       <c r="B90" s="60"/>
       <c r="C90" s="60"/>
       <c r="D90" s="61"/>
@@ -7990,7 +7919,7 @@
       <c r="T90" s="64"/>
       <c r="U90" s="60"/>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:21">
       <c r="B91" s="60"/>
       <c r="C91" s="60"/>
       <c r="D91" s="61"/>
@@ -8012,7 +7941,7 @@
       <c r="T91" s="64"/>
       <c r="U91" s="60"/>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:21">
       <c r="B92" s="60"/>
       <c r="C92" s="60"/>
       <c r="D92" s="61"/>
@@ -8034,7 +7963,7 @@
       <c r="T92" s="64"/>
       <c r="U92" s="60"/>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:21">
       <c r="B93" s="60"/>
       <c r="C93" s="60"/>
       <c r="D93" s="61"/>
@@ -8056,7 +7985,7 @@
       <c r="T93" s="64"/>
       <c r="U93" s="60"/>
     </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:21">
       <c r="B94" s="60"/>
       <c r="C94" s="60"/>
       <c r="D94" s="61"/>
@@ -8078,7 +8007,7 @@
       <c r="T94" s="64"/>
       <c r="U94" s="60"/>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:21">
       <c r="B95" s="60"/>
       <c r="C95" s="60"/>
       <c r="D95" s="61"/>
@@ -8100,7 +8029,7 @@
       <c r="T95" s="64"/>
       <c r="U95" s="60"/>
     </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:21">
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
       <c r="D96" s="61"/>
@@ -8122,7 +8051,7 @@
       <c r="T96" s="64"/>
       <c r="U96" s="60"/>
     </row>
-    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:21">
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
       <c r="D97" s="61"/>
@@ -8144,7 +8073,7 @@
       <c r="T97" s="64"/>
       <c r="U97" s="60"/>
     </row>
-    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:21">
       <c r="B98" s="60"/>
       <c r="C98" s="60"/>
       <c r="D98" s="61"/>
@@ -8166,7 +8095,7 @@
       <c r="T98" s="64"/>
       <c r="U98" s="60"/>
     </row>
-    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:21">
       <c r="B99" s="60"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
@@ -8188,7 +8117,7 @@
       <c r="T99" s="64"/>
       <c r="U99" s="60"/>
     </row>
-    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:21">
       <c r="B100" s="60"/>
       <c r="C100" s="60"/>
       <c r="D100" s="61"/>
@@ -8210,7 +8139,7 @@
       <c r="T100" s="64"/>
       <c r="U100" s="60"/>
     </row>
-    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:21">
       <c r="B101" s="60"/>
       <c r="C101" s="60"/>
       <c r="D101" s="61"/>
@@ -8232,7 +8161,7 @@
       <c r="T101" s="64"/>
       <c r="U101" s="60"/>
     </row>
-    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:21">
       <c r="B102" s="60"/>
       <c r="C102" s="60"/>
       <c r="D102" s="61"/>
@@ -8254,7 +8183,7 @@
       <c r="T102" s="64"/>
       <c r="U102" s="60"/>
     </row>
-    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:21">
       <c r="B103" s="60"/>
       <c r="C103" s="60"/>
       <c r="D103" s="61"/>
@@ -8276,7 +8205,7 @@
       <c r="T103" s="64"/>
       <c r="U103" s="60"/>
     </row>
-    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:21">
       <c r="B104" s="60"/>
       <c r="C104" s="60"/>
       <c r="D104" s="61"/>
@@ -8299,12 +8228,14 @@
       <c r="U104" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="P58:P60"/>
+    <mergeCell ref="Q58:Q60"/>
     <mergeCell ref="R58:R60"/>
+    <mergeCell ref="S58:S60"/>
     <mergeCell ref="T58:T60"/>
     <mergeCell ref="AA58:AA60"/>
     <mergeCell ref="AB58:AB60"/>
@@ -8322,7 +8253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8330,7 +8261,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -8338,7 +8269,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -8358,7 +8289,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -8378,7 +8309,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -8403,7 +8334,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -8425,7 +8356,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -8433,7 +8364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -8441,7 +8372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -8449,7 +8380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -8457,7 +8388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -8465,7 +8396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -8473,7 +8404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -8481,7 +8412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -8489,7 +8420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -8497,7 +8428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -8505,7 +8436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -8513,7 +8444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -8521,7 +8452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -8529,7 +8460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -8537,7 +8468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -8545,7 +8476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -8553,7 +8484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -8561,7 +8492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
